--- a/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandradorohina/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandradorohina/Documents/GitHub/Testing/Документация/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C72486C-2C29-224F-A130-29565C95B133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2838B0-BCD1-5847-BA04-F7332DD54AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9040" yWindow="500" windowWidth="19500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="71" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="134">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -1759,7 +1759,322 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="111">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1793,27 +2108,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1875,9 +2169,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44948.983124652776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{55E7A129-078C-B243-AB19-F572E2438520}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44957.839457407405" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{2FF1E172-43DF-BB45-BD92-CA8F61268656}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H29" sheet="Автоматизированный расчет"/>
+    <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Script name" numFmtId="0">
@@ -1900,22 +2194,22 @@
       </sharedItems>
     </cacheField>
     <cacheField name="count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="VU" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="38" maxValue="110"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="31" maxValue="110"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.54545454545454541" maxValue="1.5789473684210527"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.935483870967742"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.909090909090908" maxValue="58.064516129032256"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="58.064516129032256"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2166,7 +2460,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="29">
   <r>
     <s v="Покупка билета"/>
     <x v="0"/>
@@ -2290,12 +2584,12 @@
   <r>
     <s v="Удаление бронирования "/>
     <x v="7"/>
-    <n v="1"/>
+    <n v="0"/>
     <n v="2"/>
     <n v="100"/>
-    <n v="0.6"/>
+    <n v="0"/>
     <n v="20"/>
-    <n v="24"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="Регистрация новых пользователей"/>
@@ -2358,64 +2652,74 @@
     <n v="16"/>
   </r>
   <r>
+    <s v="Логин"/>
+    <x v="7"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
+    <n v="20"/>
+    <n v="16"/>
+  </r>
+  <r>
     <s v="Поиск билета без покупки"/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="38"/>
-    <n v="1.5789473684210527"/>
+    <n v="31"/>
+    <n v="1.935483870967742"/>
     <n v="20"/>
-    <n v="31.578947368421055"/>
+    <n v="38.70967741935484"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="38"/>
-    <n v="1.5789473684210527"/>
+    <n v="31"/>
+    <n v="1.935483870967742"/>
     <n v="20"/>
-    <n v="31.578947368421055"/>
+    <n v="38.70967741935484"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="38"/>
-    <n v="1.5789473684210527"/>
+    <n v="31"/>
+    <n v="1.935483870967742"/>
     <n v="20"/>
-    <n v="31.578947368421055"/>
+    <n v="38.70967741935484"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="3"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="38"/>
-    <n v="1.5789473684210527"/>
+    <n v="31"/>
+    <n v="1.935483870967742"/>
     <n v="20"/>
-    <n v="31.578947368421055"/>
+    <n v="38.70967741935484"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="4"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="38"/>
-    <n v="1.5789473684210527"/>
+    <n v="31"/>
+    <n v="1.935483870967742"/>
     <n v="20"/>
-    <n v="31.578947368421055"/>
+    <n v="38.70967741935484"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="38"/>
-    <n v="1.5789473684210527"/>
+    <n v="31"/>
+    <n v="1.935483870967742"/>
     <n v="20"/>
-    <n v="31.578947368421055"/>
+    <n v="38.70967741935484"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
@@ -2451,137 +2755,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I57:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1924534C-5410-BC4B-9269-B1024A971FED}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BC0FEE5-A882-1442-9BAC-C65885FC7475}" name="Сводная таблица2" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2660,26 +2834,156 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="12">
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I57:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="110">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    <format dxfId="109">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="6">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    <format dxfId="108">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="107">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="106">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2957,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2972,8 +3276,8 @@
     <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" customWidth="1"/>
     <col min="12" max="12" width="26.6640625" customWidth="1"/>
     <col min="13" max="13" width="35.1640625" bestFit="1" customWidth="1"/>
@@ -3061,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="71">
-        <f t="shared" ref="D2:D29" si="0">VLOOKUP(A2,$M$1:$W$10,6,FALSE)</f>
+        <f t="shared" ref="D2:D30" si="0">VLOOKUP(A2,$M$1:$W$10,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E2">
@@ -3084,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="20">
-        <v>140.5525544065442</v>
+        <v>147.68328445747801</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" t="s">
@@ -3148,7 +3452,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G29" si="3">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
+        <f t="shared" ref="G3:G19" si="3">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H3" s="20">
@@ -3159,7 +3463,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="20">
-        <v>89.643463497453311</v>
+        <v>96.774193548387103</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" t="s">
@@ -3215,7 +3519,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" ref="F4:F29" si="5">60/E4*C4</f>
+        <f t="shared" ref="F4:F17" si="5">60/E4*C4</f>
         <v>0.967741935483871</v>
       </c>
       <c r="G4">
@@ -3223,14 +3527,14 @@
         <v>20</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H29" si="6">D4*F4*G4</f>
+        <f t="shared" ref="H4:H16" si="6">D4*F4*G4</f>
         <v>58.064516129032256</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="20">
-        <v>113.64346349745331</v>
+        <v>112.7741935483871</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
@@ -3301,7 +3605,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="20">
-        <v>89.643463497453311</v>
+        <v>96.774193548387103</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" t="s">
@@ -3317,21 +3621,21 @@
         <v>29</v>
       </c>
       <c r="Q5" s="36">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="R5" s="18">
         <v>1</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>1.5789473684210527</v>
+        <v>1.935483870967742</v>
       </c>
       <c r="T5" s="22">
         <v>20</v>
       </c>
       <c r="U5" s="23">
         <f>ROUND(R5*S5*T5,0)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="V5" s="35">
         <f t="shared" si="2"/>
@@ -3473,7 +3777,7 @@
       </c>
       <c r="U7" s="23">
         <f>SUM(U2:U6)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="V7" s="35">
         <f t="shared" si="2"/>
@@ -3556,7 +3860,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="20">
-        <v>172.5525544065442</v>
+        <v>179.68328445747801</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -3649,7 +3953,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" ref="E12:E29" si="7">VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E12:E17" si="7">VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
         <v>100</v>
       </c>
       <c r="F12" s="21">
@@ -3705,7 +4009,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="20">
-        <v>89.643463497453311</v>
+        <v>96.774193548387103</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3716,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="50">
         <f t="shared" si="0"/>
@@ -3728,7 +4032,7 @@
       </c>
       <c r="F14" s="21">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
@@ -3736,13 +4040,13 @@
       </c>
       <c r="H14" s="20">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="20">
-        <v>966.71708597005716</v>
+        <v>1001.5014662756598</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -3834,7 +4138,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" ref="H17:H21" si="8">D17*F17*G17</f>
+        <f t="shared" ref="H17:H19" si="8">D17*F17*G17</f>
         <v>32</v>
       </c>
     </row>
@@ -3923,43 +4227,43 @@
         <v>0.8</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A20,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="8"/>
+        <f>D20*F20*G20</f>
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="30">
-        <v>1</v>
-      </c>
-      <c r="D21" s="49">
+        <v>6</v>
+      </c>
+      <c r="C21" s="69">
+        <v>1</v>
+      </c>
+      <c r="D21" s="72">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f>VLOOKUP(A21,$M$1:$W$8,5,FALSE)</f>
+        <v>75</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="5"/>
-        <v>1.5789473684210527</v>
+        <f>60/E21*C21</f>
+        <v>0.8</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A21,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="8"/>
-        <v>31.578947368421055</v>
+        <f>D21*F21*G21</f>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3967,7 +4271,7 @@
         <v>66</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C22" s="30">
         <v>1</v>
@@ -3977,20 +4281,20 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f>VLOOKUP(A22,$M$1:$W$8,5,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="5"/>
-        <v>1.5789473684210527</v>
+        <f>60/E22*C22</f>
+        <v>1.935483870967742</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A22,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="6"/>
-        <v>31.578947368421055</v>
+        <f>D22*F22*G22</f>
+        <v>38.70967741935484</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3998,7 +4302,7 @@
         <v>66</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C23" s="30">
         <v>1</v>
@@ -4008,20 +4312,20 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f>VLOOKUP(A23,$M$1:$W$8,5,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="5"/>
-        <v>1.5789473684210527</v>
+        <f>60/E23*C23</f>
+        <v>1.935483870967742</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A23,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="6"/>
-        <v>31.578947368421055</v>
+        <f>D23*F23*G23</f>
+        <v>38.70967741935484</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -4029,7 +4333,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C24" s="30">
         <v>1</v>
@@ -4039,20 +4343,20 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f>VLOOKUP(A24,$M$1:$W$8,5,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="5"/>
-        <v>1.5789473684210527</v>
+        <f>60/E24*C24</f>
+        <v>1.935483870967742</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A24,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="6"/>
-        <v>31.578947368421055</v>
+        <f>D24*F24*G24</f>
+        <v>38.70967741935484</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -4060,7 +4364,7 @@
         <v>66</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="30">
         <v>1</v>
@@ -4070,28 +4374,28 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f>VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="5"/>
-        <v>1.5789473684210527</v>
+        <f>60/E25*C25</f>
+        <v>1.935483870967742</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A25,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="6"/>
-        <v>31.578947368421055</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <f>D25*F25*G25</f>
+        <v>38.70967741935484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26" s="30">
         <v>1</v>
@@ -4101,51 +4405,51 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f>VLOOKUP(A26,$M$1:$W$8,5,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="5"/>
-        <v>1.5789473684210527</v>
+        <f>60/E26*C26</f>
+        <v>1.935483870967742</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A26,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="6"/>
-        <v>31.578947368421055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <f>D26*F26*G26</f>
+        <v>38.70967741935484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="7"/>
-        <v>110</v>
+        <f>VLOOKUP(A27,$M$1:$W$8,5,FALSE)</f>
+        <v>31</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="5"/>
-        <v>0.54545454545454541</v>
+        <f>60/E27*C27</f>
+        <v>1.935483870967742</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A27,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="6"/>
-        <v>10.909090909090908</v>
+        <f t="shared" ref="H27:H30" si="9">D27*F27*G27</f>
+        <v>38.70967741935484</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4153,29 +4457,29 @@
         <v>10</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C28" s="30">
         <v>1</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="51">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(A28,$M$1:$W$8,5,FALSE)</f>
         <v>110</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="5"/>
+        <f>60/E28*C28</f>
         <v>0.54545454545454541</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A28,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.909090909090908</v>
       </c>
     </row>
@@ -4184,7 +4488,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" s="30">
         <v>1</v>
@@ -4194,42 +4498,59 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="7"/>
+        <f>VLOOKUP(A29,$M$1:$W$8,5,FALSE)</f>
         <v>110</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="5"/>
+        <f>60/E29*C29</f>
         <v>0.54545454545454541</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A29,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f>VLOOKUP(A30,$M$1:$W$8,5,FALSE)</f>
+        <v>110</v>
+      </c>
+      <c r="F30" s="21">
+        <f>60/E30*C30</f>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G30">
+        <f>VLOOKUP(A30,$M$1:$W$8,8,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="9"/>
+        <v>10.909090909090908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="80" x14ac:dyDescent="0.25">
+      <c r="A32" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="75"/>
-    </row>
-    <row r="32" spans="1:9" ht="80" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>130</v>
-      </c>
+      <c r="B32" s="75"/>
       <c r="E32" s="58"/>
       <c r="F32" s="57" t="s">
         <v>88</v>
@@ -4244,94 +4565,93 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="40">
-        <v>520</v>
-      </c>
-      <c r="C33" s="28">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)*3</f>
-        <v>517.65766321963258</v>
-      </c>
-      <c r="D33" s="56">
-        <f>1-B33/C33</f>
-        <v>-4.5248760847063085E-3</v>
+        <v>77</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>130</v>
       </c>
       <c r="E33" s="54"/>
       <c r="F33" s="53" t="str">
-        <f>VLOOKUP(A33,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A34,Соответствие!A:B,2,FALSE)</f>
         <v>open_site</v>
       </c>
       <c r="G33" s="59">
-        <f>C33/3</f>
-        <v>172.5525544065442</v>
+        <f>C34/3</f>
+        <v>179.68328445747798</v>
       </c>
       <c r="H33" s="48" t="e">
         <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="26" t="e">
-        <f t="shared" ref="I33:I44" si="9">1-G33/H33</f>
+        <f t="shared" ref="I33:I44" si="10">1-G33/H33</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>0</v>
+    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A34" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="B34" s="40">
-        <v>422</v>
+        <v>520</v>
       </c>
       <c r="C34" s="28">
-        <f t="shared" ref="C34:C44" si="10">GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
-        <v>421.65766321963258</v>
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
+        <v>539.04985337243397</v>
       </c>
       <c r="D34" s="56">
         <f>1-B34/C34</f>
-        <v>-8.1188321766401117E-4</v>
+        <v>3.5339687513600504E-2</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="53" t="str">
-        <f>VLOOKUP(A34,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
       <c r="G34" s="59">
-        <f t="shared" ref="G34:G44" si="11">C34/3</f>
-        <v>140.5525544065442</v>
+        <f>C35/3</f>
+        <v>147.68328445747801</v>
       </c>
       <c r="H34" s="48">
         <f>VLOOKUP(F34,SummaryReport!A:J,8,FALSE)</f>
         <v>136</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="9"/>
-        <v>-3.3474664754001404E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
-        <v>76</v>
+        <f t="shared" si="10"/>
+        <v>-8.5906503363808895E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
+        <v>0</v>
       </c>
       <c r="B35" s="40">
-        <v>305</v>
+        <v>422</v>
       </c>
       <c r="C35" s="28">
-        <v>314</v>
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)*3</f>
+        <v>443.04985337243403</v>
       </c>
       <c r="D35" s="56">
         <f>1-B35/C35</f>
-        <v>2.8662420382165599E-2</v>
+        <v>4.751125231665343E-2</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="53" t="str">
-        <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
         <v>search_flights_button</v>
       </c>
       <c r="G35" s="59">
-        <f t="shared" si="11"/>
-        <v>104.66666666666667</v>
+        <f>C36/3</f>
+        <v>96.774193548387117</v>
       </c>
       <c r="H35" s="48" t="e">
         <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
@@ -4340,93 +4660,93 @@
       <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
-        <v>11</v>
+      <c r="A36" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="B36" s="40">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C36" s="28">
-        <f t="shared" si="10"/>
-        <v>268.93039049235995</v>
-      </c>
-      <c r="D36" s="52">
-        <f t="shared" ref="D36:D45" si="12">1-B36/C36</f>
-        <v>-4.8598484848484835E-2</v>
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
+        <v>290.32258064516134</v>
+      </c>
+      <c r="D36" s="56">
+        <f>1-B36/C36</f>
+        <v>-5.0555555555555465E-2</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="53" t="str">
-        <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>search_ticket</v>
       </c>
       <c r="G36" s="59">
-        <f t="shared" si="11"/>
-        <v>89.643463497453311</v>
+        <f>C37/3</f>
+        <v>96.774193548387117</v>
       </c>
       <c r="H36" s="48" t="e">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A37" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="40">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C37" s="28">
-        <f t="shared" si="10"/>
-        <v>268.93039049235995</v>
+        <f t="shared" ref="C37:C45" si="11">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
+        <v>290.32258064516134</v>
       </c>
       <c r="D37" s="52">
-        <f t="shared" si="12"/>
-        <v>-3.9772727272726627E-3</v>
+        <f t="shared" ref="D37:D46" si="12">1-B37/C37</f>
+        <v>2.866666666666684E-2</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="53" t="str">
-        <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>search_time_of_flight</v>
       </c>
       <c r="G37" s="59">
-        <f t="shared" si="11"/>
-        <v>89.643463497453311</v>
+        <f>C38/3</f>
+        <v>96.774193548387117</v>
       </c>
       <c r="H37" s="48" t="e">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="41" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B38" s="40">
-        <v>175</v>
+        <v>270</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="10"/>
-        <v>174.19354838709677</v>
+        <f t="shared" si="11"/>
+        <v>290.32258064516134</v>
       </c>
       <c r="D38" s="52">
         <f t="shared" si="12"/>
-        <v>-4.6296296296297612E-3</v>
+        <v>7.0000000000000173E-2</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="53" t="str">
-        <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>payment</v>
       </c>
       <c r="G38" s="59">
-        <f t="shared" si="11"/>
+        <f>C39/3</f>
         <v>58.064516129032256</v>
       </c>
       <c r="H38" s="48" t="e">
@@ -4434,32 +4754,32 @@
         <v>#N/A</v>
       </c>
       <c r="I38" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="40">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" si="10"/>
-        <v>278.92082111436946</v>
+        <f t="shared" si="11"/>
+        <v>174.19354838709677</v>
       </c>
       <c r="D39" s="52">
         <f t="shared" si="12"/>
-        <v>-3.8691227184795007E-3</v>
+        <v>-4.6296296296297612E-3</v>
       </c>
       <c r="E39" s="67"/>
       <c r="F39" s="53" t="str">
-        <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>itinerary</v>
       </c>
       <c r="G39" s="59">
-        <f t="shared" si="11"/>
+        <f>C40/3</f>
         <v>92.973607038123149</v>
       </c>
       <c r="H39" s="48" t="e">
@@ -4467,32 +4787,32 @@
         <v>#N/A</v>
       </c>
       <c r="I39" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="41" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B40" s="40">
-        <v>73</v>
+        <v>280</v>
       </c>
       <c r="C40" s="28">
-        <f t="shared" si="10"/>
-        <v>72</v>
+        <f t="shared" si="11"/>
+        <v>278.92082111436946</v>
       </c>
       <c r="D40" s="52">
         <f t="shared" si="12"/>
-        <v>-1.388888888888884E-2</v>
+        <v>-3.8691227184795007E-3</v>
       </c>
       <c r="E40" s="54"/>
       <c r="F40" s="53" t="str">
-        <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>delete_booking</v>
       </c>
       <c r="G40" s="59">
-        <f t="shared" si="11"/>
+        <f>C41/3</f>
         <v>24</v>
       </c>
       <c r="H40" s="48" t="e">
@@ -4500,82 +4820,82 @@
         <v>#N/A</v>
       </c>
       <c r="I40" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="41" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B41" s="40">
-        <v>326</v>
+        <v>73</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" si="10"/>
-        <v>340.93039049235995</v>
+        <f t="shared" si="11"/>
+        <v>72</v>
       </c>
       <c r="D41" s="52">
         <f t="shared" si="12"/>
-        <v>4.3793075973068807E-2</v>
+        <v>-1.388888888888884E-2</v>
       </c>
       <c r="E41" s="54"/>
       <c r="F41" s="53" t="str">
-        <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>logout</v>
       </c>
       <c r="G41" s="59">
-        <f t="shared" si="11"/>
-        <v>113.64346349745331</v>
+        <f>C42/3</f>
+        <v>112.77419354838712</v>
       </c>
       <c r="H41" s="48">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>107</v>
       </c>
       <c r="I41" s="26">
-        <f t="shared" si="9"/>
-        <v>-6.2088443901432866E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>-5.3964425685860906E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="41" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B42" s="40">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="C42" s="28">
-        <f t="shared" si="10"/>
-        <v>96</v>
+        <f t="shared" si="11"/>
+        <v>338.32258064516134</v>
       </c>
       <c r="D42" s="52">
         <f t="shared" si="12"/>
-        <v>-1.0416666666666741E-2</v>
+        <v>3.6422578184592047E-2</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="53" t="str">
-        <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>sign_up_button</v>
       </c>
       <c r="G42" s="59">
-        <f t="shared" si="11"/>
+        <f>C43/3</f>
         <v>32</v>
       </c>
       <c r="H42" s="48"/>
       <c r="I42" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A43" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" s="40">
         <v>97</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="D43" s="52">
@@ -4584,28 +4904,28 @@
       </c>
       <c r="E43" s="54"/>
       <c r="F43" s="53" t="str">
-        <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>profile_fill</v>
       </c>
       <c r="G43" s="59">
-        <f t="shared" si="11"/>
+        <f>C44/3</f>
         <v>32</v>
       </c>
       <c r="H43" s="48"/>
       <c r="I43" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="38" x14ac:dyDescent="0.2">
       <c r="A44" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="40">
         <v>97</v>
       </c>
       <c r="C44" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="D44" s="52">
@@ -4614,59 +4934,64 @@
       </c>
       <c r="E44" s="54"/>
       <c r="F44" s="53" t="str">
-        <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
+        <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>after_reg</v>
       </c>
       <c r="G44" s="59">
-        <f t="shared" si="11"/>
+        <f>C45/3</f>
         <v>32</v>
       </c>
       <c r="H44" s="48"/>
       <c r="I44" s="26" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
+    <row r="45" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="40">
+        <v>97</v>
+      </c>
+      <c r="C45" s="28">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="D45" s="52">
+        <f t="shared" si="12"/>
+        <v>-1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="44">
-        <f>SUM(B33:B44)</f>
+      <c r="B46" s="44">
+        <f>SUM(B34:B45)</f>
         <v>2944</v>
       </c>
-      <c r="C45" s="27">
-        <f>SUM(C33:C44)</f>
-        <v>2945.2208674178114</v>
-      </c>
-      <c r="D45" s="25">
+      <c r="C46" s="27">
+        <f>SUM(C34:C45)</f>
+        <v>3004.5043988269799</v>
+      </c>
+      <c r="D46" s="25">
         <f t="shared" si="12"/>
-        <v>4.1452491095572697E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.0137896569764391E-2</v>
+      </c>
       <c r="I46" s="32"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C47" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="32"/>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
+      <c r="C48" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="32"/>
       <c r="E48" t="s">
         <v>72</v>
       </c>
@@ -4681,25 +5006,20 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="61">
-        <f>124/3</f>
-        <v>41.333333333333336</v>
-      </c>
-      <c r="C49" s="36">
-        <v>57</v>
-      </c>
-      <c r="D49" s="33">
-        <f>60/C49</f>
-        <v>1.0526315789473684</v>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
       </c>
       <c r="E49" s="47">
         <v>20</v>
       </c>
       <c r="F49" s="45">
-        <f>B49/(D49*E49)</f>
+        <f>B50/(D50*E49)</f>
         <v>1.9633333333333336</v>
       </c>
       <c r="G49" s="20">
@@ -4707,171 +5027,173 @@
         <v>2</v>
       </c>
       <c r="H49" s="20">
-        <f>G49*D49*E49</f>
+        <f>G49*D50*E49</f>
         <v>42.105263157894733</v>
       </c>
       <c r="I49" s="31">
-        <f>1-B49/H49</f>
+        <f>1-B50/H49</f>
         <v>1.8333333333333202E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="61">
+        <f>124/3</f>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="C50" s="36">
+        <v>57</v>
+      </c>
+      <c r="D50" s="33">
+        <f>60/C50</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="E50" s="47">
+        <v>20</v>
+      </c>
+      <c r="F50" s="45">
+        <f>B51/(D51*E50)</f>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="G50" s="20">
+        <f>ROUND(F50,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H50" s="20">
+        <f>G50*D51*E50</f>
+        <v>48</v>
+      </c>
+      <c r="I50" s="31">
+        <f>1-B51/H50</f>
+        <v>-4.1666666666666741E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="61">
+      <c r="B51" s="61">
         <f>150/3</f>
         <v>50</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C51" s="36">
         <v>25</v>
       </c>
-      <c r="D50" s="33">
-        <f>60/C50</f>
+      <c r="D51" s="33">
+        <f>60/C51</f>
         <v>2.4</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E51" s="47">
         <v>20</v>
       </c>
-      <c r="F50" s="45">
-        <f>B50/(D50*E50)</f>
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="G50" s="20">
-        <f>ROUND(F50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H50" s="20">
-        <f>G50*D50*E50</f>
-        <v>48</v>
-      </c>
-      <c r="I50" s="31">
-        <f>1-B50/H50</f>
-        <v>-4.1666666666666741E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="F51" s="45">
+        <f>B52/(D52*E51)</f>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G51" s="20">
+        <v>1</v>
+      </c>
+      <c r="H51" s="20">
+        <f>G51*D52*E51</f>
+        <v>10.434782608695652</v>
+      </c>
+      <c r="I51" s="31">
+        <f>1-B52/H51</f>
+        <v>4.166666666666663E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B52" s="62">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C52" s="46">
         <v>115</v>
       </c>
-      <c r="D51" s="33">
-        <f>60/C51</f>
+      <c r="D52" s="33">
+        <f>60/C52</f>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E51" s="47">
+      <c r="E52" s="47">
         <v>20</v>
       </c>
-      <c r="F51" s="45">
-        <f>B51/(D51*E51)</f>
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="G51" s="20">
-        <v>1</v>
-      </c>
-      <c r="H51" s="20">
-        <f>G51*D51*E51</f>
-        <v>10.434782608695652</v>
-      </c>
-      <c r="I51" s="31">
-        <f>1-B51/H51</f>
-        <v>4.166666666666663E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+      <c r="F52" s="45">
+        <f>B53/(D53*E52)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="G52" s="20">
+        <v>1</v>
+      </c>
+      <c r="H52" s="20">
+        <f>G52*D53*E52</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="I52" s="31">
+        <f>1-B53/H52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="61">
+      <c r="B53" s="61">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C53" s="36">
         <v>180</v>
       </c>
-      <c r="D52" s="33">
-        <f>60/C52</f>
+      <c r="D53" s="33">
+        <f>60/C53</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E52" s="47">
+      <c r="E53" s="47">
         <v>20</v>
       </c>
-      <c r="F52" s="45">
-        <f>B52/(D52*E52)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="G52" s="20">
-        <v>1</v>
-      </c>
-      <c r="H52" s="20">
-        <f>G52*D52*E52</f>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="I52" s="31">
-        <f>1-B52/H52</f>
+      <c r="F53" s="45">
+        <f>B54/(D54*E53)</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="20">
+        <f>ROUND(F53,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H53" s="20">
+        <f>G53*D54*E53</f>
+        <v>40</v>
+      </c>
+      <c r="I53" s="31">
+        <f>1-B54/H53</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="61">
+      <c r="B54" s="61">
         <f>120/3</f>
         <v>40</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C54" s="36">
         <v>30</v>
       </c>
-      <c r="D53" s="33">
-        <f>60/C53</f>
+      <c r="D54" s="33">
+        <f>60/C54</f>
         <v>2</v>
       </c>
-      <c r="E53" s="47">
-        <v>20</v>
-      </c>
-      <c r="F53" s="45">
-        <f>B53/(D53*E53)</f>
-        <v>1</v>
-      </c>
-      <c r="G53" s="20">
-        <f>ROUND(F53,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="20">
-        <f>G53*D53*E53</f>
-        <v>40</v>
-      </c>
-      <c r="I53" s="31">
-        <f>1-B53/H53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G54" s="20">
         <f>SUM(G49:G53)</f>
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
       <c r="E57" t="s">
         <v>104</v>
       </c>
@@ -4890,29 +5212,27 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="20">
-        <f>VLOOKUP(A58,$A$49:$H$53,6,FALSE)</f>
-        <v>1.9633333333333336</v>
-      </c>
-      <c r="D58">
-        <f>VLOOKUP(A58,$A$49:$H$53,3,FALSE)</f>
-        <v>57</v>
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
       </c>
       <c r="E58" s="20">
-        <f>60/D58</f>
+        <f>60/D59</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58" s="20">
-        <f>C58*E58*F58</f>
-        <v>41.333333333333336</v>
+        <f>C59*E58*F58</f>
+        <v>21.92982456140351</v>
       </c>
       <c r="I58" s="17" t="s">
         <v>95</v>
@@ -4926,26 +5246,26 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C59" s="20">
-        <f t="shared" ref="C59:C83" si="13">VLOOKUP(A59,$A$49:$H$53,6,FALSE)</f>
-        <v>1.9633333333333336</v>
+        <f>VLOOKUP(A59,$A$49:$H$53,6,FALSE)</f>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D83" si="14">VLOOKUP(A59,$A$49:$H$53,3,FALSE)</f>
+        <f>VLOOKUP(A59,$A$49:$H$53,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E59" s="20">
-        <f t="shared" ref="E59:E83" si="15">60/D59</f>
+        <f>60/D60</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F59">
         <v>20</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G83" si="16">C59*E59*F59</f>
-        <v>41.333333333333336</v>
+        <f>C60*E59*F59</f>
+        <v>21.92982456140351</v>
       </c>
       <c r="I59" s="17" t="s">
         <v>92</v>
@@ -4959,26 +5279,26 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C60" s="20">
-        <f t="shared" si="13"/>
-        <v>1.9633333333333336</v>
+        <f t="shared" ref="C60:C84" si="13">VLOOKUP(A60,$A$49:$H$53,6,FALSE)</f>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D60">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D60:D84" si="14">VLOOKUP(A60,$A$49:$H$53,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E60" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D61</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="16"/>
-        <v>41.333333333333336</v>
+        <f>C61*E60*F60</f>
+        <v>21.92982456140351</v>
       </c>
       <c r="I60" s="17" t="s">
         <v>94</v>
@@ -4992,26 +5312,26 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="20">
         <f t="shared" si="13"/>
-        <v>1.9633333333333336</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D61">
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="E61" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D62</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F61">
         <v>20</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="16"/>
-        <v>41.333333333333336</v>
+        <f>C62*E61*F61</f>
+        <v>21.92982456140351</v>
       </c>
       <c r="I61" s="63" t="s">
         <v>97</v>
@@ -5025,26 +5345,26 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" s="20">
         <f t="shared" si="13"/>
-        <v>1.9633333333333336</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D62">
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="E62" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D63</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F62">
         <v>20</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="16"/>
-        <v>41.333333333333336</v>
+        <f>C63*E62*F62</f>
+        <v>21.92982456140351</v>
       </c>
       <c r="I62" s="63" t="s">
         <v>67</v>
@@ -5058,26 +5378,26 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="20">
         <f t="shared" si="13"/>
-        <v>1.9633333333333336</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D63">
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="E63" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D64</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F63">
         <v>20</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="16"/>
-        <v>41.333333333333336</v>
+        <f>C64*E63*F63</f>
+        <v>21.92982456140351</v>
       </c>
       <c r="I63" s="17" t="s">
         <v>93</v>
@@ -5091,26 +5411,26 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="20">
         <f t="shared" si="13"/>
-        <v>1.9633333333333336</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D64">
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="E64" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D65</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" si="16"/>
-        <v>41.333333333333336</v>
+        <f>C65*E64*F64</f>
+        <v>21.92982456140351</v>
       </c>
       <c r="I64" s="63" t="s">
         <v>96</v>
@@ -5121,10 +5441,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C65" s="20">
         <f t="shared" si="13"/>
@@ -5132,18 +5452,18 @@
       </c>
       <c r="D65">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E65" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D66</f>
         <v>2.4</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="16"/>
-        <v>50</v>
+        <f>C66*E65*F65</f>
+        <v>46</v>
       </c>
       <c r="I65" s="17" t="s">
         <v>99</v>
@@ -5157,26 +5477,26 @@
         <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C66" s="20">
         <f t="shared" si="13"/>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D66">
         <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="E66" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D67</f>
         <v>2.4</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="16"/>
-        <v>50</v>
+        <f>C67*E66*F66</f>
+        <v>46</v>
       </c>
       <c r="I66" s="63" t="s">
         <v>100</v>
@@ -5190,26 +5510,26 @@
         <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C67" s="20">
         <f t="shared" si="13"/>
-        <v>1.0416666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D67">
         <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="E67" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D68</f>
         <v>2.4</v>
       </c>
       <c r="F67">
         <v>20</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="16"/>
-        <v>50</v>
+        <f>C68*E67*F67</f>
+        <v>46</v>
       </c>
       <c r="I67" s="17" t="s">
         <v>41</v>
@@ -5220,10 +5540,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C68" s="20">
         <f t="shared" si="13"/>
@@ -5231,18 +5551,18 @@
       </c>
       <c r="D68">
         <f t="shared" si="14"/>
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="E68" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D69</f>
         <v>0.52173913043478259</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f>C69*E68*F68</f>
+        <v>10.434782608695654</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -5250,26 +5570,26 @@
         <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C69" s="20">
         <f t="shared" si="13"/>
-        <v>0.95833333333333337</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D69">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="E69" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D70</f>
         <v>0.52173913043478259</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f>C70*E69*F69</f>
+        <v>10.434782608695654</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -5277,26 +5597,26 @@
         <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C70" s="20">
         <f t="shared" si="13"/>
-        <v>0.95833333333333337</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D70">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="E70" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D71</f>
         <v>0.52173913043478259</v>
       </c>
       <c r="F70">
         <v>20</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f>C71*E70*F70</f>
+        <v>10.434782608695654</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -5304,26 +5624,26 @@
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" si="13"/>
-        <v>0.95833333333333337</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D71">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="E71" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D72</f>
         <v>0.52173913043478259</v>
       </c>
       <c r="F71">
         <v>20</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f>C72*E71*F71</f>
+        <v>10.434782608695654</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -5331,34 +5651,34 @@
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C72" s="20">
         <f t="shared" si="13"/>
-        <v>0.95833333333333337</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D72">
         <f t="shared" si="14"/>
         <v>115</v>
       </c>
       <c r="E72" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D73</f>
         <v>0.52173913043478259</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f>C73*E72*F72</f>
+        <v>10.434782608695654</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C73" s="20">
         <f t="shared" si="13"/>
@@ -5366,18 +5686,18 @@
       </c>
       <c r="D73">
         <f t="shared" si="14"/>
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="E73" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D74</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="16"/>
-        <v>6.6666666666666679</v>
+        <f>C74*E73*F73</f>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -5389,22 +5709,22 @@
       </c>
       <c r="C74" s="20">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="E74" s="20">
-        <f>60/D74</f>
+        <f>60/D75</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F74">
         <v>20</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="16"/>
-        <v>6.6666666666666679</v>
+        <f>C75*E74*F74</f>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -5412,26 +5732,26 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C75" s="20">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="E75" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D76</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F75">
         <v>20</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="16"/>
-        <v>6.6666666666666679</v>
+        <f>C76*E75*F75</f>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -5439,26 +5759,26 @@
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C76" s="20">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D76">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="E76" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D77</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F76">
         <v>20</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="16"/>
-        <v>6.6666666666666679</v>
+        <f>C77*E76*F76</f>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -5466,26 +5786,26 @@
         <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="20">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D77">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="E77" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D78</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="16"/>
-        <v>6.6666666666666679</v>
+        <f>C78*E77*F77</f>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -5493,26 +5813,26 @@
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="20">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D78">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="E78" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D79</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" si="16"/>
-        <v>6.6666666666666679</v>
+        <f>C79*E78*F78</f>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -5520,34 +5840,34 @@
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C79" s="20">
         <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="E79" s="20">
-        <f t="shared" si="15"/>
+        <f>60/D80</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="16"/>
-        <v>6.6666666666666679</v>
+        <f>C80*E79*F79</f>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C80" s="20">
         <f t="shared" si="13"/>
@@ -5555,18 +5875,18 @@
       </c>
       <c r="D80">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E80" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>180</v>
+      </c>
+      <c r="E80" s="20" t="e">
+        <f>60/D81</f>
+        <v>#N/A</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
-      <c r="G80" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
+      <c r="G80" s="20" t="e">
+        <f>C81*E80*F80</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5574,26 +5894,26 @@
         <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="20">
+        <v>92</v>
+      </c>
+      <c r="C81" s="20" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D81">
+        <v>#N/A</v>
+      </c>
+      <c r="D81" t="e">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E81" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="20" t="e">
+        <f>60/D82</f>
+        <v>#N/A</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
-      <c r="G81" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
+      <c r="G81" s="20" t="e">
+        <f>C82*E81*F81</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5601,26 +5921,26 @@
         <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="20">
+        <v>67</v>
+      </c>
+      <c r="C82" s="20" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D82">
+        <v>#N/A</v>
+      </c>
+      <c r="D82" t="e">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E82" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="20" t="e">
+        <f>60/D83</f>
+        <v>#N/A</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
-      <c r="G82" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
+      <c r="G82" s="20" t="e">
+        <f>C83*E82*F82</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5628,31 +5948,47 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="20">
+        <v>99</v>
+      </c>
+      <c r="C83" s="20" t="e">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D83">
+        <v>#N/A</v>
+      </c>
+      <c r="D83" t="e">
         <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E83" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="20" t="e">
+        <f>60/D84</f>
+        <v>#N/A</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
-      <c r="G83" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
+      <c r="G83" s="20" t="e">
+        <f>C84*E83*F83</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D84" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5684,7 +6020,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
-        <f>'Автоматизированный расчет'!A33</f>
+        <f>'Автоматизированный расчет'!A34</f>
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
@@ -5693,7 +6029,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <f>'Автоматизированный расчет'!A34</f>
+        <f>'Автоматизированный расчет'!A35</f>
         <v>Вход в систему</v>
       </c>
       <c r="B3" t="s">
@@ -5702,7 +6038,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <f>'Автоматизированный расчет'!A35</f>
+        <f>'Автоматизированный расчет'!A36</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
@@ -5711,7 +6047,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>'Автоматизированный расчет'!A36</f>
+        <f>'Автоматизированный расчет'!A37</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
@@ -5720,7 +6056,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>'Автоматизированный расчет'!A37</f>
+        <f>'Автоматизированный расчет'!A38</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
@@ -5729,7 +6065,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>'Автоматизированный расчет'!A38</f>
+        <f>'Автоматизированный расчет'!A39</f>
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
@@ -5738,7 +6074,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>'Автоматизированный расчет'!A39</f>
+        <f>'Автоматизированный расчет'!A40</f>
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
@@ -5747,7 +6083,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>'Автоматизированный расчет'!A40</f>
+        <f>'Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
@@ -5756,7 +6092,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>'Автоматизированный расчет'!A41</f>
+        <f>'Автоматизированный расчет'!A42</f>
         <v>Выход из системы</v>
       </c>
       <c r="B10" t="s">
@@ -5765,7 +6101,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>'Автоматизированный расчет'!A42</f>
+        <f>'Автоматизированный расчет'!A43</f>
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
@@ -5774,7 +6110,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>'Автоматизированный расчет'!A43</f>
+        <f>'Автоматизированный расчет'!A44</f>
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
@@ -5783,7 +6119,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>'Автоматизированный расчет'!A44</f>
+        <f>'Автоматизированный расчет'!A45</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
@@ -7072,10 +7408,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25180F0-4345-C947-AB0C-4CD29B0B9F33}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7087,178 +7423,439 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="71"/>
+      <c r="A1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="69">
+        <v>1</v>
+      </c>
+      <c r="D1" s="71" t="e">
+        <f t="shared" ref="D1:D29" si="0">VLOOKUP(A1,$M$1:$W$10,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="72"/>
+      <c r="A2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="69">
+        <v>1</v>
+      </c>
+      <c r="D2" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="69">
+        <v>1</v>
+      </c>
+      <c r="D3" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="72"/>
+      <c r="A4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="69">
+        <v>1</v>
+      </c>
+      <c r="D4" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="72"/>
+      <c r="A5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="69">
+        <v>1</v>
+      </c>
+      <c r="D5" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72"/>
+      <c r="A6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="69">
+        <v>1</v>
+      </c>
+      <c r="D6" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="72"/>
+      <c r="A7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="69">
+        <v>1</v>
+      </c>
+      <c r="D7" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
+      <c r="A8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="69">
+        <v>1</v>
+      </c>
+      <c r="D8" s="70" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="49"/>
+      <c r="A12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="50"/>
+      <c r="A13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="51"/>
+      <c r="A14" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="49"/>
+      <c r="A16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="49"/>
+      <c r="A17" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="71"/>
+      <c r="A18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="69">
+        <v>1</v>
+      </c>
+      <c r="D18" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72"/>
+      <c r="A19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="69">
+        <v>1</v>
+      </c>
+      <c r="D19" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="72"/>
+      <c r="A20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="69">
+        <v>1</v>
+      </c>
+      <c r="D20" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="49"/>
+      <c r="A21" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="30">
+        <v>1</v>
+      </c>
+      <c r="D23" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="30">
+        <v>1</v>
+      </c>
+      <c r="D24" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="49"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="49"/>
-    </row>
-    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="49"/>
+      <c r="A25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="30">
+        <v>1</v>
+      </c>
+      <c r="D25" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="30">
+        <v>1</v>
+      </c>
+      <c r="D27" s="51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="51"/>
+      <c r="A28" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+      <c r="D28" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1</v>
+      </c>
+      <c r="D29" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
@@ -7266,6 +7863,12 @@
       <c r="C30" s="30"/>
       <c r="D30" s="49"/>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="49"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandradorohina/Documents/GitHub/Testing/Документация/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2838B0-BCD1-5847-BA04-F7332DD54AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7396C61-41D8-2644-A0FB-1215ADBFFBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="500" windowWidth="19500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="500" windowWidth="19500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="71" r:id="rId7"/>
+    <pivotCache cacheId="152" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1759,7 +1759,385 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="237">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
@@ -2169,7 +2547,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44957.839457407405" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{2FF1E172-43DF-BB45-BD92-CA8F61268656}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44957.881503819444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{2FF1E172-43DF-BB45-BD92-CA8F61268656}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2200,10 +2578,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="31" maxValue="110"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="110"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.935483870967742"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.875"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
@@ -2666,60 +3044,60 @@
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31"/>
-    <n v="1.935483870967742"/>
+    <n v="32"/>
+    <n v="1.875"/>
     <n v="20"/>
-    <n v="38.70967741935484"/>
+    <n v="37.5"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31"/>
-    <n v="1.935483870967742"/>
+    <n v="32"/>
+    <n v="1.875"/>
     <n v="20"/>
-    <n v="38.70967741935484"/>
+    <n v="37.5"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31"/>
-    <n v="1.935483870967742"/>
+    <n v="32"/>
+    <n v="1.875"/>
     <n v="20"/>
-    <n v="38.70967741935484"/>
+    <n v="37.5"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="3"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31"/>
-    <n v="1.935483870967742"/>
+    <n v="32"/>
+    <n v="1.875"/>
     <n v="20"/>
-    <n v="38.70967741935484"/>
+    <n v="37.5"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="4"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31"/>
-    <n v="1.935483870967742"/>
+    <n v="32"/>
+    <n v="1.875"/>
     <n v="20"/>
-    <n v="38.70967741935484"/>
+    <n v="37.5"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="31"/>
-    <n v="1.935483870967742"/>
+    <n v="32"/>
+    <n v="1.875"/>
     <n v="20"/>
-    <n v="38.70967741935484"/>
+    <n v="37.5"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
@@ -2755,7 +3133,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BC0FEE5-A882-1442-9BAC-C65885FC7475}" name="Сводная таблица2" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BC0FEE5-A882-1442-9BAC-C65885FC7475}" name="Сводная таблица2" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2834,25 +3212,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="7">
+    <format dxfId="91">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="93">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="94">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="95">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="96">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="97">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2935,21 +3313,21 @@
     <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="110">
+    <format dxfId="236">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="235">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="234">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2958,7 +3336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="233">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2967,7 +3345,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="232">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2976,7 +3354,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="231">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3263,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3276,8 +3654,8 @@
     <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" customWidth="1"/>
     <col min="12" max="12" width="26.6640625" customWidth="1"/>
     <col min="13" max="13" width="35.1640625" bestFit="1" customWidth="1"/>
@@ -3388,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="20">
-        <v>147.68328445747801</v>
+        <v>146.47360703812316</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" t="s">
@@ -3463,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="20">
-        <v>96.774193548387103</v>
+        <v>95.564516129032256</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" t="s">
@@ -3534,7 +3912,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="20">
-        <v>112.7741935483871</v>
+        <v>111.56451612903226</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
@@ -3605,7 +3983,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="20">
-        <v>96.774193548387103</v>
+        <v>95.564516129032256</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" t="s">
@@ -3621,21 +3999,21 @@
         <v>29</v>
       </c>
       <c r="Q5" s="36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="18">
         <v>1</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>1.935483870967742</v>
+        <v>1.875</v>
       </c>
       <c r="T5" s="22">
         <v>20</v>
       </c>
       <c r="U5" s="23">
         <f>ROUND(R5*S5*T5,0)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V5" s="35">
         <f t="shared" si="2"/>
@@ -3777,7 +4155,7 @@
       </c>
       <c r="U7" s="23">
         <f>SUM(U2:U6)</f>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V7" s="35">
         <f t="shared" si="2"/>
@@ -3860,7 +4238,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="20">
-        <v>179.68328445747801</v>
+        <v>178.47360703812316</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -4009,7 +4387,7 @@
         <v>76</v>
       </c>
       <c r="J13" s="20">
-        <v>96.774193548387103</v>
+        <v>95.564516129032256</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4046,7 +4424,7 @@
         <v>41</v>
       </c>
       <c r="J14" s="20">
-        <v>1001.5014662756598</v>
+        <v>994.2434017595308</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -4282,11 +4660,11 @@
       </c>
       <c r="E22">
         <f>VLOOKUP(A22,$M$1:$W$8,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="21">
         <f>60/E22*C22</f>
-        <v>1.935483870967742</v>
+        <v>1.875</v>
       </c>
       <c r="G22">
         <f>VLOOKUP(A22,$M$1:$W$8,8,FALSE)</f>
@@ -4294,7 +4672,7 @@
       </c>
       <c r="H22" s="20">
         <f>D22*F22*G22</f>
-        <v>38.70967741935484</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4313,11 +4691,11 @@
       </c>
       <c r="E23">
         <f>VLOOKUP(A23,$M$1:$W$8,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F23" s="21">
         <f>60/E23*C23</f>
-        <v>1.935483870967742</v>
+        <v>1.875</v>
       </c>
       <c r="G23">
         <f>VLOOKUP(A23,$M$1:$W$8,8,FALSE)</f>
@@ -4325,7 +4703,7 @@
       </c>
       <c r="H23" s="20">
         <f>D23*F23*G23</f>
-        <v>38.70967741935484</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -4344,11 +4722,11 @@
       </c>
       <c r="E24">
         <f>VLOOKUP(A24,$M$1:$W$8,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="21">
         <f>60/E24*C24</f>
-        <v>1.935483870967742</v>
+        <v>1.875</v>
       </c>
       <c r="G24">
         <f>VLOOKUP(A24,$M$1:$W$8,8,FALSE)</f>
@@ -4356,7 +4734,7 @@
       </c>
       <c r="H24" s="20">
         <f>D24*F24*G24</f>
-        <v>38.70967741935484</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -4375,11 +4753,11 @@
       </c>
       <c r="E25">
         <f>VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F25" s="21">
         <f>60/E25*C25</f>
-        <v>1.935483870967742</v>
+        <v>1.875</v>
       </c>
       <c r="G25">
         <f>VLOOKUP(A25,$M$1:$W$8,8,FALSE)</f>
@@ -4387,7 +4765,7 @@
       </c>
       <c r="H25" s="20">
         <f>D25*F25*G25</f>
-        <v>38.70967741935484</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -4406,11 +4784,11 @@
       </c>
       <c r="E26">
         <f>VLOOKUP(A26,$M$1:$W$8,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F26" s="21">
         <f>60/E26*C26</f>
-        <v>1.935483870967742</v>
+        <v>1.875</v>
       </c>
       <c r="G26">
         <f>VLOOKUP(A26,$M$1:$W$8,8,FALSE)</f>
@@ -4418,7 +4796,7 @@
       </c>
       <c r="H26" s="20">
         <f>D26*F26*G26</f>
-        <v>38.70967741935484</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4437,11 +4815,11 @@
       </c>
       <c r="E27">
         <f>VLOOKUP(A27,$M$1:$W$8,5,FALSE)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" s="21">
         <f>60/E27*C27</f>
-        <v>1.935483870967742</v>
+        <v>1.875</v>
       </c>
       <c r="G27">
         <f>VLOOKUP(A27,$M$1:$W$8,8,FALSE)</f>
@@ -4449,7 +4827,7 @@
       </c>
       <c r="H27" s="20">
         <f t="shared" ref="H27:H30" si="9">D27*F27*G27</f>
-        <v>38.70967741935484</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4585,7 +4963,7 @@
       </c>
       <c r="G33" s="59">
         <f>C34/3</f>
-        <v>179.68328445747798</v>
+        <v>178.47360703812316</v>
       </c>
       <c r="H33" s="48" t="e">
         <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
@@ -4605,11 +4983,11 @@
       </c>
       <c r="C34" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
-        <v>539.04985337243397</v>
+        <v>535.42082111436946</v>
       </c>
       <c r="D34" s="56">
         <f>1-B34/C34</f>
-        <v>3.5339687513600504E-2</v>
+        <v>2.8801310121399748E-2</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="53" t="str">
@@ -4618,7 +4996,7 @@
       </c>
       <c r="G34" s="59">
         <f>C35/3</f>
-        <v>147.68328445747801</v>
+        <v>146.47360703812316</v>
       </c>
       <c r="H34" s="48">
         <f>VLOOKUP(F34,SummaryReport!A:J,8,FALSE)</f>
@@ -4626,7 +5004,7 @@
       </c>
       <c r="I34" s="26">
         <f t="shared" si="10"/>
-        <v>-8.5906503363808895E-2</v>
+        <v>-7.7011816456787896E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.2">
@@ -4638,11 +5016,11 @@
       </c>
       <c r="C35" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)*3</f>
-        <v>443.04985337243403</v>
+        <v>439.42082111436946</v>
       </c>
       <c r="D35" s="56">
         <f>1-B35/C35</f>
-        <v>4.751125231665343E-2</v>
+        <v>3.9644960541902252E-2</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="53" t="str">
@@ -4651,7 +5029,7 @@
       </c>
       <c r="G35" s="59">
         <f>C36/3</f>
-        <v>96.774193548387117</v>
+        <v>95.564516129032256</v>
       </c>
       <c r="H35" s="48" t="e">
         <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
@@ -4668,11 +5046,11 @@
       </c>
       <c r="C36" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
-        <v>290.32258064516134</v>
+        <v>286.69354838709677</v>
       </c>
       <c r="D36" s="56">
         <f>1-B36/C36</f>
-        <v>-5.0555555555555465E-2</v>
+        <v>-6.3853727144866479E-2</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="53" t="str">
@@ -4681,7 +5059,7 @@
       </c>
       <c r="G36" s="59">
         <f>C37/3</f>
-        <v>96.774193548387117</v>
+        <v>95.564516129032256</v>
       </c>
       <c r="H36" s="48" t="e">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
@@ -4701,11 +5079,11 @@
       </c>
       <c r="C37" s="28">
         <f t="shared" ref="C37:C45" si="11">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
-        <v>290.32258064516134</v>
+        <v>286.69354838709677</v>
       </c>
       <c r="D37" s="52">
         <f t="shared" ref="D37:D46" si="12">1-B37/C37</f>
-        <v>2.866666666666684E-2</v>
+        <v>1.6371308016877584E-2</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="53" t="str">
@@ -4714,7 +5092,7 @@
       </c>
       <c r="G37" s="59">
         <f>C38/3</f>
-        <v>96.774193548387117</v>
+        <v>95.564516129032256</v>
       </c>
       <c r="H37" s="48" t="e">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
@@ -4734,11 +5112,11 @@
       </c>
       <c r="C38" s="28">
         <f t="shared" si="11"/>
-        <v>290.32258064516134</v>
+        <v>286.69354838709677</v>
       </c>
       <c r="D38" s="52">
         <f t="shared" si="12"/>
-        <v>7.0000000000000173E-2</v>
+        <v>5.82278481012658E-2</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="53" t="str">
@@ -4846,7 +5224,7 @@
       </c>
       <c r="G41" s="59">
         <f>C42/3</f>
-        <v>112.77419354838712</v>
+        <v>111.56451612903226</v>
       </c>
       <c r="H41" s="48">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
@@ -4854,7 +5232,7 @@
       </c>
       <c r="I41" s="26">
         <f t="shared" si="10"/>
-        <v>-5.3964425685860906E-2</v>
+        <v>-4.2659029243292013E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.2">
@@ -4866,11 +5244,11 @@
       </c>
       <c r="C42" s="28">
         <f t="shared" si="11"/>
-        <v>338.32258064516134</v>
+        <v>334.69354838709677</v>
       </c>
       <c r="D42" s="52">
         <f t="shared" si="12"/>
-        <v>3.6422578184592047E-2</v>
+        <v>2.5974651824008488E-2</v>
       </c>
       <c r="E42" s="54"/>
       <c r="F42" s="53" t="str">
@@ -4973,11 +5351,11 @@
       </c>
       <c r="C46" s="27">
         <f>SUM(C34:C45)</f>
-        <v>3004.5043988269799</v>
+        <v>2982.7302052785922</v>
       </c>
       <c r="D46" s="25">
         <f t="shared" si="12"/>
-        <v>2.0137896569764391E-2</v>
+        <v>1.2984816799739618E-2</v>
       </c>
       <c r="I46" s="32"/>
     </row>

--- a/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandradorohina/Documents/GitHub/Testing/Документация/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7396C61-41D8-2644-A0FB-1215ADBFFBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A284336E-D2B1-C14C-BBC5-4BE0E0E121C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="500" windowWidth="19500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8660" yWindow="500" windowWidth="19500" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="152" r:id="rId7"/>
+    <pivotCache cacheId="167" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1121,7 +1121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1403,17 +1403,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1550,7 +1539,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1650,14 +1639,13 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1676,10 +1664,10 @@
     <xf numFmtId="1" fontId="0" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1759,7 +1747,91 @@
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="237">
+  <dxfs count="265">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
@@ -2547,7 +2619,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44957.881503819444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{2FF1E172-43DF-BB45-BD92-CA8F61268656}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44957.910073263891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{2FF1E172-43DF-BB45-BD92-CA8F61268656}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -2572,22 +2644,22 @@
       </sharedItems>
     </cacheField>
     <cacheField name="count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="VU" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="32" maxValue="110"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="38" maxValue="110"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1.875"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.54545454545454541" maxValue="1.5789473684210527"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="20"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="58.064516129032256"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.909090909090908" maxValue="58.064516129032256"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2960,16 +3032,6 @@
     <n v="24"/>
   </r>
   <r>
-    <s v="Удаление бронирования "/>
-    <x v="7"/>
-    <n v="0"/>
-    <n v="2"/>
-    <n v="100"/>
-    <n v="0"/>
-    <n v="20"/>
-    <n v="0"/>
-  </r>
-  <r>
     <s v="Регистрация новых пользователей"/>
     <x v="0"/>
     <n v="1"/>
@@ -3031,6 +3093,16 @@
   </r>
   <r>
     <s v="Логин"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
+    <n v="20"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <s v="Логин"/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
@@ -3044,60 +3116,60 @@
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="38"/>
+    <n v="1.5789473684210527"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="31.578947368421055"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="38"/>
+    <n v="1.5789473684210527"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="31.578947368421055"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="2"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="38"/>
+    <n v="1.5789473684210527"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="31.578947368421055"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="3"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="38"/>
+    <n v="1.5789473684210527"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="31.578947368421055"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="4"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="38"/>
+    <n v="1.5789473684210527"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="31.578947368421055"/>
   </r>
   <r>
     <s v="Поиск билета без покупки"/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="32"/>
-    <n v="1.875"/>
+    <n v="38"/>
+    <n v="1.5789473684210527"/>
     <n v="20"/>
-    <n v="37.5"/>
+    <n v="31.578947368421055"/>
   </r>
   <r>
     <s v="Ознакомление с путевым листом"/>
@@ -3133,7 +3205,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BC0FEE5-A882-1442-9BAC-C65885FC7475}" name="Сводная таблица2" cacheId="152" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BC0FEE5-A882-1442-9BAC-C65885FC7475}" name="Сводная таблица2" cacheId="167" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3212,25 +3284,25 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="91">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="10">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3313,21 +3385,21 @@
     <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="236">
+    <format dxfId="264">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="263">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3336,7 +3408,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="233">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3345,7 +3417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="232">
+    <format dxfId="260">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3354,7 +3426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="259">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -3642,7 +3714,7 @@
   <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3739,10 +3811,10 @@
       <c r="B2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="69">
-        <v>1</v>
-      </c>
-      <c r="D2" s="71">
+      <c r="C2" s="68">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
         <f t="shared" ref="D2:D30" si="0">VLOOKUP(A2,$M$1:$W$10,6,FALSE)</f>
         <v>3</v>
       </c>
@@ -3766,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="20">
-        <v>146.47360703812316</v>
+        <v>140.5525544065442</v>
       </c>
       <c r="K2" s="15"/>
       <c r="M2" t="s">
@@ -3775,10 +3847,10 @@
       <c r="N2" s="24">
         <v>5</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="63">
         <v>35</v>
       </c>
-      <c r="P2" s="65">
+      <c r="P2" s="64">
         <v>40</v>
       </c>
       <c r="Q2" s="36">
@@ -3814,10 +3886,10 @@
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69">
-        <v>1</v>
-      </c>
-      <c r="D3" s="72">
+      <c r="C3" s="68">
+        <v>1</v>
+      </c>
+      <c r="D3" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3830,7 +3902,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G19" si="3">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
+        <f t="shared" ref="G3:G18" si="3">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H3" s="20">
@@ -3841,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="20">
-        <v>95.564516129032256</v>
+        <v>89.643463497453311</v>
       </c>
       <c r="K3" s="15"/>
       <c r="M3" t="s">
@@ -3850,10 +3922,10 @@
       <c r="N3" s="24">
         <v>3</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="63">
         <v>20</v>
       </c>
-      <c r="P3" s="65">
+      <c r="P3" s="64">
         <v>23</v>
       </c>
       <c r="Q3" s="36">
@@ -3885,19 +3957,19 @@
       <c r="B4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="69">
-        <v>1</v>
-      </c>
-      <c r="D4" s="72">
+      <c r="C4" s="68">
+        <v>1</v>
+      </c>
+      <c r="D4" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="4">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E4:E16" si="4">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
         <v>62</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" ref="F4:F17" si="5">60/E4*C4</f>
+        <f t="shared" ref="F4:F16" si="5">60/E4*C4</f>
         <v>0.967741935483871</v>
       </c>
       <c r="G4">
@@ -3905,14 +3977,14 @@
         <v>20</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H16" si="6">D4*F4*G4</f>
+        <f t="shared" ref="H4:H18" si="6">D4*F4*G4</f>
         <v>58.064516129032256</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="20">
-        <v>111.56451612903226</v>
+        <v>105.64346349745331</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
@@ -3921,10 +3993,10 @@
       <c r="N4" s="24">
         <v>3</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="63">
         <v>15</v>
       </c>
-      <c r="P4" s="65">
+      <c r="P4" s="64">
         <v>18</v>
       </c>
       <c r="Q4" s="36">
@@ -3956,10 +4028,10 @@
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69">
-        <v>1</v>
-      </c>
-      <c r="D5" s="72">
+      <c r="C5" s="68">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3983,7 +4055,7 @@
         <v>11</v>
       </c>
       <c r="J5" s="20">
-        <v>95.564516129032256</v>
+        <v>89.643463497453311</v>
       </c>
       <c r="K5" s="15"/>
       <c r="M5" t="s">
@@ -3992,28 +4064,28 @@
       <c r="N5" s="24">
         <v>4</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="63">
         <v>25</v>
       </c>
-      <c r="P5" s="65">
+      <c r="P5" s="64">
         <v>29</v>
       </c>
       <c r="Q5" s="36">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R5" s="18">
         <v>1</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>1.875</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="T5" s="22">
         <v>20</v>
       </c>
       <c r="U5" s="23">
         <f>ROUND(R5*S5*T5,0)</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V5" s="35">
         <f t="shared" si="2"/>
@@ -4027,10 +4099,10 @@
       <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="69">
-        <v>1</v>
-      </c>
-      <c r="D6" s="72">
+      <c r="C6" s="68">
+        <v>1</v>
+      </c>
+      <c r="D6" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4063,10 +4135,10 @@
       <c r="N6" s="24">
         <v>3</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="63">
         <v>10</v>
       </c>
-      <c r="P6" s="65">
+      <c r="P6" s="64">
         <v>13</v>
       </c>
       <c r="Q6" s="36">
@@ -4098,10 +4170,10 @@
       <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="69">
-        <v>1</v>
-      </c>
-      <c r="D7" s="72">
+      <c r="C7" s="68">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4134,7 +4206,7 @@
       <c r="N7" s="24">
         <v>2</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="65">
         <v>5</v>
       </c>
       <c r="P7" s="20">
@@ -4155,7 +4227,7 @@
       </c>
       <c r="U7" s="23">
         <f>SUM(U2:U6)</f>
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="V7" s="35">
         <f t="shared" si="2"/>
@@ -4169,10 +4241,10 @@
       <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="69">
-        <v>1</v>
-      </c>
-      <c r="D8" s="72">
+      <c r="C8" s="68">
+        <v>1</v>
+      </c>
+      <c r="D8" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4199,7 +4271,7 @@
         <v>92.973607038123163</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="V8" s="68">
+      <c r="V8" s="67">
         <f>SUM(V2:V7)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -4211,10 +4283,10 @@
       <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="69">
-        <v>1</v>
-      </c>
-      <c r="D9" s="70">
+      <c r="C9" s="68">
+        <v>1</v>
+      </c>
+      <c r="D9" s="69">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4238,7 +4310,7 @@
         <v>62</v>
       </c>
       <c r="J9" s="20">
-        <v>178.47360703812316</v>
+        <v>172.5525544065442</v>
       </c>
       <c r="K9" s="15"/>
     </row>
@@ -4252,7 +4324,7 @@
       <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4331,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" ref="E12:E17" si="7">VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F12" s="21">
@@ -4353,7 +4425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
@@ -4368,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F13" s="21">
@@ -4387,30 +4459,30 @@
         <v>76</v>
       </c>
       <c r="J13" s="20">
-        <v>95.564516129032256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105.64346349745331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C14" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
@@ -4418,13 +4490,13 @@
       </c>
       <c r="H14" s="20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="20">
-        <v>994.2434017595308</v>
+        <v>974.71708597005716</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -4432,17 +4504,17 @@
         <v>61</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="F15" s="21">
@@ -4463,7 +4535,7 @@
         <v>61</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="30">
         <v>1</v>
@@ -4473,7 +4545,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="F16" s="21">
@@ -4489,12 +4561,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
@@ -4503,12 +4575,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" s="20">
-        <f t="shared" si="7"/>
+      <c r="E17">
+        <f>VLOOKUP(A17,$M$1:$W$8,5,FALSE)</f>
         <v>75</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="5"/>
+        <f>60/E17*C17</f>
         <v>0.8</v>
       </c>
       <c r="G17">
@@ -4516,23 +4588,23 @@
         <v>20</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" ref="H17:H19" si="8">D17*F17*G17</f>
+        <f>D17*F17*G17</f>
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="30">
-        <v>1</v>
-      </c>
-      <c r="D18" s="49">
+        <v>62</v>
+      </c>
+      <c r="C18" s="68">
+        <v>1</v>
+      </c>
+      <c r="D18" s="70">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <f>VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
@@ -4547,8 +4619,8 @@
         <v>20</v>
       </c>
       <c r="H18" s="20">
-        <f>D18*F18*G18</f>
-        <v>32</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -4556,9 +4628,9 @@
         <v>67</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="69">
+        <v>0</v>
+      </c>
+      <c r="C19" s="68">
         <v>1</v>
       </c>
       <c r="D19" s="71">
@@ -4574,11 +4646,11 @@
         <v>0.8</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f>VLOOKUP(A19,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="8"/>
+        <f>D19*F19*G19</f>
         <v>16</v>
       </c>
     </row>
@@ -4587,12 +4659,12 @@
         <v>67</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="69">
-        <v>1</v>
-      </c>
-      <c r="D20" s="72">
+        <v>76</v>
+      </c>
+      <c r="C20" s="30">
+        <v>1</v>
+      </c>
+      <c r="D20" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4620,10 +4692,10 @@
       <c r="B21" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="69">
-        <v>1</v>
-      </c>
-      <c r="D21" s="72">
+      <c r="C21" s="68">
+        <v>1</v>
+      </c>
+      <c r="D21" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4660,11 +4732,11 @@
       </c>
       <c r="E22">
         <f>VLOOKUP(A22,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F22" s="21">
         <f>60/E22*C22</f>
-        <v>1.875</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="G22">
         <f>VLOOKUP(A22,$M$1:$W$8,8,FALSE)</f>
@@ -4672,7 +4744,7 @@
       </c>
       <c r="H22" s="20">
         <f>D22*F22*G22</f>
-        <v>37.5</v>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -4691,11 +4763,11 @@
       </c>
       <c r="E23">
         <f>VLOOKUP(A23,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F23" s="21">
         <f>60/E23*C23</f>
-        <v>1.875</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="G23">
         <f>VLOOKUP(A23,$M$1:$W$8,8,FALSE)</f>
@@ -4703,7 +4775,7 @@
       </c>
       <c r="H23" s="20">
         <f>D23*F23*G23</f>
-        <v>37.5</v>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -4722,11 +4794,11 @@
       </c>
       <c r="E24">
         <f>VLOOKUP(A24,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F24" s="21">
         <f>60/E24*C24</f>
-        <v>1.875</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="G24">
         <f>VLOOKUP(A24,$M$1:$W$8,8,FALSE)</f>
@@ -4734,7 +4806,7 @@
       </c>
       <c r="H24" s="20">
         <f>D24*F24*G24</f>
-        <v>37.5</v>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -4753,11 +4825,11 @@
       </c>
       <c r="E25">
         <f>VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F25" s="21">
         <f>60/E25*C25</f>
-        <v>1.875</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="G25">
         <f>VLOOKUP(A25,$M$1:$W$8,8,FALSE)</f>
@@ -4765,7 +4837,7 @@
       </c>
       <c r="H25" s="20">
         <f>D25*F25*G25</f>
-        <v>37.5</v>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -4784,11 +4856,11 @@
       </c>
       <c r="E26">
         <f>VLOOKUP(A26,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F26" s="21">
         <f>60/E26*C26</f>
-        <v>1.875</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="G26">
         <f>VLOOKUP(A26,$M$1:$W$8,8,FALSE)</f>
@@ -4796,7 +4868,7 @@
       </c>
       <c r="H26" s="20">
         <f>D26*F26*G26</f>
-        <v>37.5</v>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -4815,19 +4887,19 @@
       </c>
       <c r="E27">
         <f>VLOOKUP(A27,$M$1:$W$8,5,FALSE)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F27" s="21">
         <f>60/E27*C27</f>
-        <v>1.875</v>
+        <v>1.5789473684210527</v>
       </c>
       <c r="G27">
         <f>VLOOKUP(A27,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" ref="H27:H30" si="9">D27*F27*G27</f>
-        <v>37.5</v>
+        <f t="shared" ref="H27:H30" si="7">D27*F27*G27</f>
+        <v>31.578947368421055</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -4840,7 +4912,7 @@
       <c r="C28" s="30">
         <v>1</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4857,7 +4929,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10.909090909090908</v>
       </c>
     </row>
@@ -4888,7 +4960,7 @@
         <v>20</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10.909090909090908</v>
       </c>
     </row>
@@ -4919,18 +4991,18 @@
         <v>20</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>10.909090909090908</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:9" ht="80" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="57" t="s">
+      <c r="B32" s="74"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="56" t="s">
         <v>88</v>
       </c>
       <c r="G32" s="29" t="s">
@@ -4953,24 +5025,24 @@
       <c r="C33" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="53" t="str">
+      <c r="E33" s="53"/>
+      <c r="F33" s="52" t="str">
         <f>VLOOKUP(A34,Соответствие!A:B,2,FALSE)</f>
         <v>open_site</v>
       </c>
-      <c r="G33" s="59">
+      <c r="G33" s="58">
         <f>C34/3</f>
-        <v>178.47360703812316</v>
+        <v>172.5525544065442</v>
       </c>
       <c r="H33" s="48" t="e">
         <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="26" t="e">
-        <f t="shared" ref="I33:I44" si="10">1-G33/H33</f>
+        <f t="shared" ref="I33:I44" si="8">1-G33/H33</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4983,28 +5055,28 @@
       </c>
       <c r="C34" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
-        <v>535.42082111436946</v>
-      </c>
-      <c r="D34" s="56">
+        <v>517.65766321963258</v>
+      </c>
+      <c r="D34" s="55">
         <f>1-B34/C34</f>
-        <v>2.8801310121399748E-2</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="53" t="str">
+        <v>-4.5248760847063085E-3</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="52" t="str">
         <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G34" s="59">
+      <c r="G34" s="58">
         <f>C35/3</f>
-        <v>146.47360703812316</v>
+        <v>140.5525544065442</v>
       </c>
       <c r="H34" s="48">
         <f>VLOOKUP(F34,SummaryReport!A:J,8,FALSE)</f>
         <v>136</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="10"/>
-        <v>-7.7011816456787896E-2</v>
+        <f t="shared" si="8"/>
+        <v>-3.3474664754001404E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.2">
@@ -5016,20 +5088,20 @@
       </c>
       <c r="C35" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)*3</f>
-        <v>439.42082111436946</v>
-      </c>
-      <c r="D35" s="56">
+        <v>421.65766321963258</v>
+      </c>
+      <c r="D35" s="55">
         <f>1-B35/C35</f>
-        <v>3.9644960541902252E-2</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="53" t="str">
+        <v>-8.1188321766401117E-4</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="52" t="str">
         <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
         <v>search_flights_button</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="58">
         <f>C36/3</f>
-        <v>95.564516129032256</v>
+        <v>105.64346349745331</v>
       </c>
       <c r="H35" s="48" t="e">
         <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
@@ -5046,27 +5118,27 @@
       </c>
       <c r="C36" s="28">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
-        <v>286.69354838709677</v>
-      </c>
-      <c r="D36" s="56">
+        <v>316.93039049235995</v>
+      </c>
+      <c r="D36" s="55">
         <f>1-B36/C36</f>
-        <v>-6.3853727144866479E-2</v>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="53" t="str">
+        <v>3.7643567326647864E-2</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="52" t="str">
         <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
         <v>search_ticket</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="58">
         <f>C37/3</f>
-        <v>95.564516129032256</v>
+        <v>89.643463497453311</v>
       </c>
       <c r="H36" s="48" t="e">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5078,28 +5150,28 @@
         <v>282</v>
       </c>
       <c r="C37" s="28">
-        <f t="shared" ref="C37:C45" si="11">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
-        <v>286.69354838709677</v>
-      </c>
-      <c r="D37" s="52">
-        <f t="shared" ref="D37:D46" si="12">1-B37/C37</f>
-        <v>1.6371308016877584E-2</v>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="53" t="str">
+        <f t="shared" ref="C37:C45" si="9">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
+        <v>268.93039049235995</v>
+      </c>
+      <c r="D37" s="51">
+        <f t="shared" ref="D37:D46" si="10">1-B37/C37</f>
+        <v>-4.8598484848484835E-2</v>
+      </c>
+      <c r="E37" s="53"/>
+      <c r="F37" s="52" t="str">
         <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
         <v>search_time_of_flight</v>
       </c>
-      <c r="G37" s="59">
+      <c r="G37" s="58">
         <f>C38/3</f>
-        <v>95.564516129032256</v>
+        <v>89.643463497453311</v>
       </c>
       <c r="H37" s="48" t="e">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5111,19 +5183,19 @@
         <v>270</v>
       </c>
       <c r="C38" s="28">
-        <f t="shared" si="11"/>
-        <v>286.69354838709677</v>
-      </c>
-      <c r="D38" s="52">
-        <f t="shared" si="12"/>
-        <v>5.82278481012658E-2</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>268.93039049235995</v>
+      </c>
+      <c r="D38" s="51">
+        <f t="shared" si="10"/>
+        <v>-3.9772727272726627E-3</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="52" t="str">
         <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
         <v>payment</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="58">
         <f>C39/3</f>
         <v>58.064516129032256</v>
       </c>
@@ -5132,7 +5204,7 @@
         <v>#N/A</v>
       </c>
       <c r="I38" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5144,19 +5216,19 @@
         <v>175</v>
       </c>
       <c r="C39" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>174.19354838709677</v>
       </c>
-      <c r="D39" s="52">
-        <f t="shared" si="12"/>
+      <c r="D39" s="51">
+        <f t="shared" si="10"/>
         <v>-4.6296296296297612E-3</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="53" t="str">
+      <c r="E39" s="66"/>
+      <c r="F39" s="52" t="str">
         <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
         <v>itinerary</v>
       </c>
-      <c r="G39" s="59">
+      <c r="G39" s="58">
         <f>C40/3</f>
         <v>92.973607038123149</v>
       </c>
@@ -5165,7 +5237,7 @@
         <v>#N/A</v>
       </c>
       <c r="I39" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5177,19 +5249,19 @@
         <v>280</v>
       </c>
       <c r="C40" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>278.92082111436946</v>
       </c>
-      <c r="D40" s="52">
-        <f t="shared" si="12"/>
+      <c r="D40" s="51">
+        <f t="shared" si="10"/>
         <v>-3.8691227184795007E-3</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="53" t="str">
+      <c r="E40" s="53"/>
+      <c r="F40" s="52" t="str">
         <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
         <v>delete_booking</v>
       </c>
-      <c r="G40" s="59">
+      <c r="G40" s="58">
         <f>C41/3</f>
         <v>24</v>
       </c>
@@ -5198,7 +5270,7 @@
         <v>#N/A</v>
       </c>
       <c r="I40" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5210,29 +5282,29 @@
         <v>73</v>
       </c>
       <c r="C41" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
-      <c r="D41" s="52">
-        <f t="shared" si="12"/>
+      <c r="D41" s="51">
+        <f t="shared" si="10"/>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53" t="str">
+      <c r="E41" s="53"/>
+      <c r="F41" s="52" t="str">
         <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
         <v>logout</v>
       </c>
-      <c r="G41" s="59">
+      <c r="G41" s="58">
         <f>C42/3</f>
-        <v>111.56451612903226</v>
+        <v>105.64346349745331</v>
       </c>
       <c r="H41" s="48">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
         <v>107</v>
       </c>
       <c r="I41" s="26">
-        <f t="shared" si="10"/>
-        <v>-4.2659029243292013E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.2677911238754058E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.2">
@@ -5243,25 +5315,25 @@
         <v>326</v>
       </c>
       <c r="C42" s="28">
-        <f t="shared" si="11"/>
-        <v>334.69354838709677</v>
-      </c>
-      <c r="D42" s="52">
-        <f t="shared" si="12"/>
-        <v>2.5974651824008488E-2</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53" t="str">
+        <f t="shared" si="9"/>
+        <v>316.93039049235995</v>
+      </c>
+      <c r="D42" s="51">
+        <f t="shared" si="10"/>
+        <v>-2.8617039513156639E-2</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="52" t="str">
         <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
         <v>sign_up_button</v>
       </c>
-      <c r="G42" s="59">
+      <c r="G42" s="58">
         <f>C43/3</f>
         <v>32</v>
       </c>
       <c r="H42" s="48"/>
       <c r="I42" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5273,25 +5345,25 @@
         <v>97</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="D43" s="52">
-        <f t="shared" si="12"/>
+      <c r="D43" s="51">
+        <f t="shared" si="10"/>
         <v>-1.0416666666666741E-2</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="53" t="str">
+      <c r="E43" s="53"/>
+      <c r="F43" s="52" t="str">
         <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
         <v>profile_fill</v>
       </c>
-      <c r="G43" s="59">
+      <c r="G43" s="58">
         <f>C44/3</f>
         <v>32</v>
       </c>
       <c r="H43" s="48"/>
       <c r="I43" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5303,25 +5375,25 @@
         <v>97</v>
       </c>
       <c r="C44" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="D44" s="52">
-        <f t="shared" si="12"/>
+      <c r="D44" s="51">
+        <f t="shared" si="10"/>
         <v>-1.0416666666666741E-2</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="53" t="str">
+      <c r="E44" s="53"/>
+      <c r="F44" s="52" t="str">
         <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
         <v>after_reg</v>
       </c>
-      <c r="G44" s="59">
+      <c r="G44" s="58">
         <f>C45/3</f>
         <v>32</v>
       </c>
       <c r="H44" s="48"/>
       <c r="I44" s="26" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5333,11 +5405,11 @@
         <v>97</v>
       </c>
       <c r="C45" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="D45" s="52">
-        <f t="shared" si="12"/>
+      <c r="D45" s="51">
+        <f t="shared" si="10"/>
         <v>-1.0416666666666741E-2</v>
       </c>
     </row>
@@ -5351,11 +5423,11 @@
       </c>
       <c r="C46" s="27">
         <f>SUM(C34:C45)</f>
-        <v>2982.7302052785922</v>
+        <v>2924.1512579101714</v>
       </c>
       <c r="D46" s="25">
-        <f t="shared" si="12"/>
-        <v>1.2984816799739618E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.7878643541900985E-3</v>
       </c>
       <c r="I46" s="32"/>
     </row>
@@ -5414,10 +5486,10 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="61">
+      <c r="B50" s="60">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
@@ -5449,10 +5521,10 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="61">
+      <c r="B51" s="60">
         <f>150/3</f>
         <v>50</v>
       </c>
@@ -5483,10 +5555,10 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="62">
+      <c r="B52" s="61">
         <f>30/3</f>
         <v>10</v>
       </c>
@@ -5517,10 +5589,10 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="61">
+      <c r="B53" s="60">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
@@ -5552,10 +5624,10 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="61">
+      <c r="B54" s="60">
         <f>120/3</f>
         <v>40</v>
       </c>
@@ -5660,11 +5732,11 @@
         <v>67</v>
       </c>
       <c r="C60" s="20">
-        <f t="shared" ref="C60:C84" si="13">VLOOKUP(A60,$A$49:$H$53,6,FALSE)</f>
+        <f t="shared" ref="C60:C84" si="11">VLOOKUP(A60,$A$49:$H$53,6,FALSE)</f>
         <v>1.0416666666666667</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:D84" si="14">VLOOKUP(A60,$A$49:$H$53,3,FALSE)</f>
+        <f t="shared" ref="D60:D84" si="12">VLOOKUP(A60,$A$49:$H$53,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E60" s="20">
@@ -5693,11 +5765,11 @@
         <v>93</v>
       </c>
       <c r="C61" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="E61" s="20">
@@ -5711,7 +5783,7 @@
         <f>C62*E61*F61</f>
         <v>21.92982456140351</v>
       </c>
-      <c r="I61" s="63" t="s">
+      <c r="I61" s="62" t="s">
         <v>97</v>
       </c>
       <c r="J61" s="20">
@@ -5726,11 +5798,11 @@
         <v>94</v>
       </c>
       <c r="C62" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="E62" s="20">
@@ -5744,7 +5816,7 @@
         <f>C63*E62*F62</f>
         <v>21.92982456140351</v>
       </c>
-      <c r="I62" s="63" t="s">
+      <c r="I62" s="62" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="20">
@@ -5759,11 +5831,11 @@
         <v>95</v>
       </c>
       <c r="C63" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="E63" s="20">
@@ -5792,11 +5864,11 @@
         <v>96</v>
       </c>
       <c r="C64" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="E64" s="20">
@@ -5810,7 +5882,7 @@
         <f>C65*E64*F64</f>
         <v>21.92982456140351</v>
       </c>
-      <c r="I64" s="63" t="s">
+      <c r="I64" s="62" t="s">
         <v>96</v>
       </c>
       <c r="J64" s="20">
@@ -5825,11 +5897,11 @@
         <v>97</v>
       </c>
       <c r="C65" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="E65" s="20">
@@ -5858,11 +5930,11 @@
         <v>92</v>
       </c>
       <c r="C66" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="E66" s="20">
@@ -5876,7 +5948,7 @@
         <f>C67*E66*F66</f>
         <v>46</v>
       </c>
-      <c r="I66" s="63" t="s">
+      <c r="I66" s="62" t="s">
         <v>100</v>
       </c>
       <c r="J66" s="20">
@@ -5891,11 +5963,11 @@
         <v>67</v>
       </c>
       <c r="C67" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="E67" s="20">
@@ -5924,11 +5996,11 @@
         <v>97</v>
       </c>
       <c r="C68" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="E68" s="20">
@@ -5951,11 +6023,11 @@
         <v>92</v>
       </c>
       <c r="C69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="E69" s="20">
@@ -5978,11 +6050,11 @@
         <v>67</v>
       </c>
       <c r="C70" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="E70" s="20">
@@ -6005,11 +6077,11 @@
         <v>99</v>
       </c>
       <c r="C71" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="E71" s="20">
@@ -6032,11 +6104,11 @@
         <v>100</v>
       </c>
       <c r="C72" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="E72" s="20">
@@ -6059,11 +6131,11 @@
         <v>97</v>
       </c>
       <c r="C73" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>115</v>
       </c>
       <c r="E73" s="20">
@@ -6086,11 +6158,11 @@
         <v>92</v>
       </c>
       <c r="C74" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="E74" s="20">
@@ -6113,11 +6185,11 @@
         <v>92</v>
       </c>
       <c r="C75" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="E75" s="20">
@@ -6140,11 +6212,11 @@
         <v>67</v>
       </c>
       <c r="C76" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="E76" s="20">
@@ -6167,11 +6239,11 @@
         <v>93</v>
       </c>
       <c r="C77" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="E77" s="20">
@@ -6194,11 +6266,11 @@
         <v>94</v>
       </c>
       <c r="C78" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="E78" s="20">
@@ -6221,11 +6293,11 @@
         <v>95</v>
       </c>
       <c r="C79" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="E79" s="20">
@@ -6248,11 +6320,11 @@
         <v>97</v>
       </c>
       <c r="C80" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="D80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="E80" s="20" t="e">
@@ -6275,11 +6347,11 @@
         <v>92</v>
       </c>
       <c r="C81" s="20" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D81" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E81" s="20" t="e">
@@ -6302,11 +6374,11 @@
         <v>67</v>
       </c>
       <c r="C82" s="20" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D82" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E82" s="20" t="e">
@@ -6329,11 +6401,11 @@
         <v>99</v>
       </c>
       <c r="C83" s="20" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D83" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="E83" s="20" t="e">
@@ -6356,11 +6428,11 @@
         <v>97</v>
       </c>
       <c r="C84" s="20" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="D84" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6523,642 +6595,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="72" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="73">
+      <c r="C2" s="72">
         <v>0.188</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="72">
         <v>0.434</v>
       </c>
-      <c r="E2" s="73">
+      <c r="E2" s="72">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="72">
         <v>0.14799999999999999</v>
       </c>
-      <c r="G2" s="73">
+      <c r="G2" s="72">
         <v>0.63300000000000001</v>
       </c>
-      <c r="H2" s="73">
+      <c r="H2" s="72">
         <v>169</v>
       </c>
-      <c r="I2" s="73">
+      <c r="I2" s="72">
         <v>0</v>
       </c>
-      <c r="J2" s="73">
+      <c r="J2" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="72">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="72">
         <v>0.111</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="72">
         <v>0.156</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="72">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G3" s="73">
+      <c r="G3" s="72">
         <v>0.128</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="72">
         <v>97</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="72">
         <v>0</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="72">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="72">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="72">
         <v>6.3E-2</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="72">
         <v>0.01</v>
       </c>
-      <c r="G4" s="73">
+      <c r="G4" s="72">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H4" s="73">
+      <c r="H4" s="72">
         <v>24</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="72">
         <v>0</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="72">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="72">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="72">
         <v>0.01</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="72">
         <v>6.3E-2</v>
       </c>
-      <c r="H5" s="73">
+      <c r="H5" s="72">
         <v>92</v>
       </c>
-      <c r="I5" s="73">
+      <c r="I5" s="72">
         <v>0</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="72">
         <v>0.123</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="72">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="72">
         <v>0.10199999999999999</v>
       </c>
-      <c r="H6" s="73">
+      <c r="H6" s="72">
         <v>32</v>
       </c>
-      <c r="I6" s="73">
+      <c r="I6" s="72">
         <v>0</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="72">
         <v>0.111</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="72">
         <v>0.13400000000000001</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="72">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="72">
         <v>0.128</v>
       </c>
-      <c r="H7" s="73">
+      <c r="H7" s="72">
         <v>98</v>
       </c>
-      <c r="I7" s="73">
+      <c r="I7" s="72">
         <v>0</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="72">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="72">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="72">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="72">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="72">
         <v>0.107</v>
       </c>
-      <c r="H8" s="73">
+      <c r="H8" s="72">
         <v>136</v>
       </c>
-      <c r="I8" s="73">
+      <c r="I8" s="72">
         <v>0</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="72">
         <v>7.8E-2</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="72">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="72">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="72">
         <v>0.1</v>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="72">
         <v>107</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="72">
         <v>0</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="72">
         <v>0.03</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="72">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="72">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="72">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="72">
         <v>6.3E-2</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="72">
         <v>32</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="72">
         <v>0</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="72">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="72">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="72">
         <v>0.105</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="72">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="72">
         <v>169</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="72">
         <v>0</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="72">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="72">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="72">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="72">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <v>6.2E-2</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="72">
         <v>58</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="72">
         <v>0</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="72">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="72">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="72">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="72">
         <v>0.01</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="72">
         <v>32</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="72">
         <v>0</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="72">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="72">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="72">
         <v>0.154</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="72">
         <v>1.6E-2</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="72">
         <v>98</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="72">
         <v>0</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="72">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="72">
         <v>0.33800000000000002</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="72">
         <v>0.38500000000000001</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="72">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <v>0.38300000000000001</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="72">
         <v>14</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="72">
         <v>0</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="72">
         <v>0.26300000000000001</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="72">
         <v>0.309</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="72">
         <v>0.33700000000000002</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="72">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="72">
         <v>0.33700000000000002</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="72">
         <v>6</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="72">
         <v>0</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="72">
         <v>0.51900000000000002</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="72">
         <v>0.60099999999999998</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="72">
         <v>0.72799999999999998</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="72">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <v>0.68400000000000005</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="72">
         <v>59</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="72">
         <v>0</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="73">
+      <c r="C18" s="72">
         <v>0.23599999999999999</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="72">
         <v>0.312</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="72">
         <v>0.36899999999999999</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="72">
         <v>3.1E-2</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="72">
         <v>0.36</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="72">
         <v>24</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="72">
         <v>0</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="73">
+      <c r="C19" s="72">
         <v>0.188</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="72">
         <v>0.245</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="72">
         <v>0.33</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="72">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="72">
         <v>0.29299999999999998</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="72">
         <v>32</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="72">
         <v>0</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="72">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="73">
+      <c r="C20" s="72">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <v>0.47</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <v>0.59799999999999998</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="72">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="72">
         <v>0.53200000000000003</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="72">
         <v>34</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="72">
         <v>0</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="72">
         <v>0</v>
       </c>
     </row>
@@ -7194,13 +7266,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="11" spans="5:9" ht="30" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
@@ -7353,13 +7425,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E25" s="8" t="s">
@@ -7519,13 +7591,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="76" t="s">
+      <c r="E35" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E37" s="8" t="s">
@@ -7786,10 +7858,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25180F0-4345-C947-AB0C-4CD29B0B9F33}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7800,127 +7872,255 @@
     <col min="4" max="4" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="69">
-        <v>1</v>
-      </c>
-      <c r="D1" s="71" t="e">
+      <c r="C1" s="68">
+        <v>1</v>
+      </c>
+      <c r="D1" s="70" t="e">
         <f t="shared" ref="D1:D29" si="0">VLOOKUP(A1,$M$1:$W$10,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="e">
+        <f>VLOOKUP(A1,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F1" s="21" t="e">
+        <f>60/E1*C1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G1" t="e">
+        <f>VLOOKUP(A1,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H1" s="20" t="e">
+        <f>D1*F1*G1</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69">
-        <v>1</v>
-      </c>
-      <c r="D2" s="72" t="e">
+      <c r="C2" s="68">
+        <v>1</v>
+      </c>
+      <c r="D2" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="e">
+        <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="21" t="e">
+        <f>60/E2*C2</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
+        <f t="shared" ref="G2:G17" si="1">VLOOKUP(A2,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="20" t="e">
+        <f>D2*F2*G2</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="69">
-        <v>1</v>
-      </c>
-      <c r="D3" s="72" t="e">
+      <c r="C3" s="68">
+        <v>1</v>
+      </c>
+      <c r="D3" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="e">
+        <f t="shared" ref="E3:E15" si="2">VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="21" t="e">
+        <f t="shared" ref="F3:F15" si="3">60/E3*C3</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="20" t="e">
+        <f t="shared" ref="H3:H17" si="4">D3*F3*G3</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="69">
-        <v>1</v>
-      </c>
-      <c r="D4" s="72" t="e">
+      <c r="C4" s="68">
+        <v>1</v>
+      </c>
+      <c r="D4" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="69">
-        <v>1</v>
-      </c>
-      <c r="D5" s="72" t="e">
+      <c r="C5" s="68">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="69">
-        <v>1</v>
-      </c>
-      <c r="D6" s="72" t="e">
+      <c r="C6" s="68">
+        <v>1</v>
+      </c>
+      <c r="D6" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="69">
-        <v>1</v>
-      </c>
-      <c r="D7" s="72" t="e">
+      <c r="C7" s="68">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="20" t="e">
+        <f>VLOOKUP(A7,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="20" t="e">
+        <f>D7*F7*G7</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="69">
-        <v>1</v>
-      </c>
-      <c r="D8" s="70" t="e">
+      <c r="C8" s="68">
+        <v>1</v>
+      </c>
+      <c r="D8" s="69" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
@@ -7930,12 +8130,28 @@
       <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="51" t="e">
+      <c r="D9" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="20" t="e">
+        <f>VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
@@ -7949,8 +8165,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
@@ -7964,8 +8196,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -7979,13 +8227,29 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="20" t="e">
+        <f>D12*F12*G12</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C13" s="30">
         <v>1</v>
@@ -7994,28 +8258,60 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="51" t="e">
+      <c r="D14" s="49" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
@@ -8024,13 +8320,29 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="30">
         <v>1</v>
@@ -8039,68 +8351,148 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="e">
+        <f>VLOOKUP(A16,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="21" t="e">
+        <f>60/E16*C16</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="20" t="e">
+        <f>D16*F16*G16</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="30">
-        <v>1</v>
-      </c>
-      <c r="D17" s="49" t="e">
+        <v>62</v>
+      </c>
+      <c r="C17" s="68">
+        <v>1</v>
+      </c>
+      <c r="D17" s="70" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="e">
+        <f>VLOOKUP(A17,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="21" t="e">
+        <f>60/E17*C17</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="69">
+        <v>0</v>
+      </c>
+      <c r="C18" s="68">
         <v>1</v>
       </c>
       <c r="D18" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="e">
+        <f>VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="21" t="e">
+        <f>60/E18*C18</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="e">
+        <f>VLOOKUP(A18,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="20" t="e">
+        <f>D18*F18*G18</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="69">
-        <v>1</v>
-      </c>
-      <c r="D19" s="72" t="e">
+        <v>76</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1</v>
+      </c>
+      <c r="D19" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="e">
+        <f>VLOOKUP(A19,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="21" t="e">
+        <f>60/E19*C19</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <f>VLOOKUP(A19,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="20" t="e">
+        <f>D19*F19*G19</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="69">
-        <v>1</v>
-      </c>
-      <c r="D20" s="72" t="e">
+      <c r="C20" s="68">
+        <v>1</v>
+      </c>
+      <c r="D20" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="e">
+        <f>VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="21" t="e">
+        <f>60/E20*C20</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="e">
+        <f>VLOOKUP(A20,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="20" t="e">
+        <f>D20*F20*G20</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
         <v>66</v>
       </c>
@@ -8114,8 +8506,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="e">
+        <f>VLOOKUP(A21,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="21" t="e">
+        <f>60/E21*C21</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <f>VLOOKUP(A21,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="20" t="e">
+        <f>D21*F21*G21</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
         <v>66</v>
       </c>
@@ -8129,8 +8537,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="e">
+        <f>VLOOKUP(A22,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="21" t="e">
+        <f>60/E22*C22</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
+        <f>VLOOKUP(A22,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="20" t="e">
+        <f>D22*F22*G22</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
         <v>66</v>
       </c>
@@ -8144,8 +8568,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="e">
+        <f>VLOOKUP(A23,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="21" t="e">
+        <f>60/E23*C23</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="e">
+        <f>VLOOKUP(A23,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" s="20" t="e">
+        <f>D23*F23*G23</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
         <v>66</v>
       </c>
@@ -8159,8 +8599,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="e">
+        <f>VLOOKUP(A24,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="21" t="e">
+        <f>60/E24*C24</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
+        <f>VLOOKUP(A24,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="20" t="e">
+        <f>D24*F24*G24</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
@@ -8174,8 +8630,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" t="e">
+        <f>VLOOKUP(A25,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="21" t="e">
+        <f>60/E25*C25</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
+        <f>VLOOKUP(A25,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="20" t="e">
+        <f>D25*F25*G25</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
@@ -8189,8 +8661,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="e">
+        <f>VLOOKUP(A26,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="21" t="e">
+        <f>60/E26*C26</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <f>VLOOKUP(A26,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="20" t="e">
+        <f t="shared" ref="H26:H29" si="5">D26*F26*G26</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>10</v>
       </c>
@@ -8200,12 +8688,28 @@
       <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="51" t="e">
+      <c r="D27" s="50" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="e">
+        <f>VLOOKUP(A27,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="21" t="e">
+        <f>60/E27*C27</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <f>VLOOKUP(A27,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="30" t="s">
         <v>10</v>
       </c>
@@ -8219,8 +8723,24 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="e">
+        <f>VLOOKUP(A28,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="21" t="e">
+        <f>60/E28*C28</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <f>VLOOKUP(A28,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="30" t="s">
         <v>10</v>
       </c>
@@ -8234,19 +8754,29 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="e">
+        <f>VLOOKUP(A29,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="21" t="e">
+        <f>60/E29*C29</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <f>VLOOKUP(A29,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="49"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="49"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandradorohina/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C72486C-2C29-224F-A130-29565C95B133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20430" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="3" r:id="rId1"/>
@@ -19,10 +13,13 @@
     <sheet name="Результаты всех тестов" sheetId="2" r:id="rId4"/>
     <sheet name="Лист1" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="8" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="O2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="Q2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="R2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="124">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -546,54 +543,6 @@
     <t>Action_Transaction</t>
   </si>
   <si>
-    <t>browsingItenerary</t>
-  </si>
-  <si>
-    <t>CancelingFlight</t>
-  </si>
-  <si>
-    <t>choseFlightTime</t>
-  </si>
-  <si>
-    <t>continueButtonClick</t>
-  </si>
-  <si>
-    <t>flightsBottonClick</t>
-  </si>
-  <si>
-    <t>newUserRegistration</t>
-  </si>
-  <si>
-    <t>openHomePage</t>
-  </si>
-  <si>
-    <t>paymentDetails</t>
-  </si>
-  <si>
-    <t>signUpNowButtonClick</t>
-  </si>
-  <si>
-    <t>startFindingFlights</t>
-  </si>
-  <si>
-    <t>UC_01_LoginLogout</t>
-  </si>
-  <si>
-    <t>UC_02_TicketSearchWithoutBuying</t>
-  </si>
-  <si>
-    <t>UC_03_TicketBuying</t>
-  </si>
-  <si>
-    <t>UC_04_ItineraryListBrowsing</t>
-  </si>
-  <si>
-    <t>UC_06_RegistraitionRandomUser</t>
-  </si>
-  <si>
-    <t>UC_07_TicketSearchWithoutBuyingWithFlightSelection</t>
-  </si>
-  <si>
     <t>open_site</t>
   </si>
   <si>
@@ -603,12 +552,6 @@
     <t>search_flights_button</t>
   </si>
   <si>
-    <t>search_ticket</t>
-  </si>
-  <si>
-    <t>search_time_of_flight</t>
-  </si>
-  <si>
     <t>payment</t>
   </si>
   <si>
@@ -625,22 +568,54 @@
   </si>
   <si>
     <t>sign_up_button</t>
+  </si>
+  <si>
+    <t>choose_ticket</t>
+  </si>
+  <si>
+    <t>choose_time_of_flight</t>
+  </si>
+  <si>
+    <t>UC2_LoginLogout</t>
+  </si>
+  <si>
+    <t>UC3_ChooseFlight</t>
+  </si>
+  <si>
+    <t>UC4_Buying</t>
+  </si>
+  <si>
+    <t>UC5_Itinerary</t>
+  </si>
+  <si>
+    <t>UC6_Del_Booking</t>
+  </si>
+  <si>
+    <t>UC7_Sign_Up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1121,7 +1096,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1403,17 +1378,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1482,114 +1446,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1599,16 +1564,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1620,28 +1585,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1650,18 +1615,17 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1676,11 +1640,11 @@
     <xf numFmtId="1" fontId="0" fillId="37" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1690,44 +1654,45 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="66"/>
   </cellXfs>
-  <cellStyles count="66">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент1 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+  <cellStyles count="67">
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1 2" xfId="48"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2 2" xfId="51"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3 2" xfId="54"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4 2" xfId="57"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5 2" xfId="60"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6 2" xfId="63"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1 2" xfId="49"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2 2" xfId="52"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3 2" xfId="55"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4 2" xfId="58"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5 2" xfId="61"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6 2" xfId="64"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1 2" xfId="50"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2 2" xfId="53"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3 2" xfId="56"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4 2" xfId="59"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5 2" xfId="62"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6 2" xfId="65"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1745,21 +1710,43 @@
     <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Название" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Нейтральный 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Нейтральный 2" xfId="46"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Обычный 3" xfId="42" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Обычный 4" xfId="45" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Обычный 2" xfId="4"/>
+    <cellStyle name="Обычный 3" xfId="42"/>
+    <cellStyle name="Обычный 4" xfId="45"/>
+    <cellStyle name="Обычный 5" xfId="66"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Примечание 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Примечание 2" xfId="43"/>
+    <cellStyle name="Примечание 3" xfId="47"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000000"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1794,27 +1781,6 @@
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1828,8 +1794,90 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Автоматизированный расчет"/>
+      <sheetName val="Соответствие"/>
+      <sheetName val="SummaryReport"/>
+      <sheetName val="Результаты всех тестов"/>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Главная Welcome страница</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Вход в систему</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Переход на страницу поиска билетов</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v xml:space="preserve">Заполнение полей для поиска билета </v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v xml:space="preserve">Выбор рейса из найденных </v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Оплата билета</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Просмотр квитанций</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v xml:space="preserve">Отмена бронирования </v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Выход из системы</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Перход на страницу регистрации</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Заполнение полей регистарции</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Переход на следуюущий эран после регистарции</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="test" refreshedDate="44849.473945949074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="test" refreshedDate="44849.473945949074" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26">
   <cacheSource type="worksheet">
     <worksheetSource ref="A57:G83" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1875,9 +1923,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44948.983124652776" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{55E7A129-078C-B243-AB19-F572E2438520}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Aleksandra" refreshedDate="44962.174884953703" createdVersion="6" refreshedVersion="4" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H29" sheet="Автоматизированный расчет"/>
+    <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Script name" numFmtId="0">
@@ -2166,7 +2214,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
   <r>
     <s v="Покупка билета"/>
     <x v="0"/>
@@ -2288,16 +2336,6 @@
     <n v="24"/>
   </r>
   <r>
-    <s v="Удаление бронирования "/>
-    <x v="7"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="100"/>
-    <n v="0.6"/>
-    <n v="20"/>
-    <n v="24"/>
-  </r>
-  <r>
     <s v="Регистрация новых пользователей"/>
     <x v="0"/>
     <n v="1"/>
@@ -2350,6 +2388,26 @@
   <r>
     <s v="Логин"/>
     <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
+    <n v="20"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <s v="Логин"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="75"/>
+    <n v="0.8"/>
+    <n v="20"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <s v="Логин"/>
+    <x v="7"/>
     <n v="1"/>
     <n v="1"/>
     <n v="75"/>
@@ -2451,137 +2509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I57:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="5">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1924534C-5410-BC4B-9269-B1024A971FED}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2660,26 +2588,156 @@
     <dataField name="Сумма по полю Итого" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="12">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I57:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Итого" fld="6" baseField="1" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2949,43 +3007,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1640625" customWidth="1"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
-    <col min="13" max="13" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" customWidth="1"/>
-    <col min="15" max="15" width="23.83203125" customWidth="1"/>
-    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="10.5" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -3050,18 +3108,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="69">
-        <v>1</v>
-      </c>
-      <c r="D2" s="71">
-        <f t="shared" ref="D2:D29" si="0">VLOOKUP(A2,$M$1:$W$10,6,FALSE)</f>
+      <c r="C2" s="68">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
+        <f t="shared" ref="D2:D30" si="0">VLOOKUP(A2,$M$1:$W$10,6,FALSE)</f>
         <v>3</v>
       </c>
       <c r="E2">
@@ -3093,10 +3151,10 @@
       <c r="N2" s="24">
         <v>5</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="63">
         <v>35</v>
       </c>
-      <c r="P2" s="65">
+      <c r="P2" s="64">
         <v>40</v>
       </c>
       <c r="Q2" s="36">
@@ -3125,17 +3183,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69">
-        <v>1</v>
-      </c>
-      <c r="D3" s="72">
+      <c r="C3" s="68">
+        <v>1</v>
+      </c>
+      <c r="D3" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3148,7 +3206,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G29" si="3">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
+        <f t="shared" ref="G3:G18" si="3">VLOOKUP(A3,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H3" s="20">
@@ -3168,10 +3226,10 @@
       <c r="N3" s="24">
         <v>3</v>
       </c>
-      <c r="O3" s="64">
+      <c r="O3" s="63">
         <v>20</v>
       </c>
-      <c r="P3" s="65">
+      <c r="P3" s="64">
         <v>23</v>
       </c>
       <c r="Q3" s="36">
@@ -3196,26 +3254,26 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="69">
-        <v>1</v>
-      </c>
-      <c r="D4" s="72">
+      <c r="C4" s="68">
+        <v>1</v>
+      </c>
+      <c r="D4" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E11" si="4">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" ref="E4:E16" si="4">VLOOKUP(A4,$M$1:$W$8,5,FALSE)</f>
         <v>62</v>
       </c>
       <c r="F4" s="21">
-        <f t="shared" ref="F4:F29" si="5">60/E4*C4</f>
+        <f t="shared" ref="F4:F16" si="5">60/E4*C4</f>
         <v>0.967741935483871</v>
       </c>
       <c r="G4">
@@ -3223,14 +3281,14 @@
         <v>20</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H29" si="6">D4*F4*G4</f>
+        <f t="shared" ref="H4:H18" si="6">D4*F4*G4</f>
         <v>58.064516129032256</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="20">
-        <v>113.64346349745331</v>
+        <v>105.64346349745331</v>
       </c>
       <c r="K4" s="15"/>
       <c r="M4" t="s">
@@ -3239,10 +3297,10 @@
       <c r="N4" s="24">
         <v>3</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="63">
         <v>15</v>
       </c>
-      <c r="P4" s="65">
+      <c r="P4" s="64">
         <v>18</v>
       </c>
       <c r="Q4" s="36">
@@ -3267,17 +3325,17 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69">
-        <v>1</v>
-      </c>
-      <c r="D5" s="72">
+      <c r="C5" s="68">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3310,10 +3368,10 @@
       <c r="N5" s="24">
         <v>4</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="63">
         <v>25</v>
       </c>
-      <c r="P5" s="65">
+      <c r="P5" s="64">
         <v>29</v>
       </c>
       <c r="Q5" s="36">
@@ -3338,17 +3396,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="69">
-        <v>1</v>
-      </c>
-      <c r="D6" s="72">
+      <c r="C6" s="68">
+        <v>1</v>
+      </c>
+      <c r="D6" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3381,10 +3439,10 @@
       <c r="N6" s="24">
         <v>3</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="63">
         <v>10</v>
       </c>
-      <c r="P6" s="65">
+      <c r="P6" s="64">
         <v>13</v>
       </c>
       <c r="Q6" s="36">
@@ -3409,17 +3467,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="69">
-        <v>1</v>
-      </c>
-      <c r="D7" s="72">
+      <c r="C7" s="68">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3452,7 +3510,7 @@
       <c r="N7" s="24">
         <v>2</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="65">
         <v>5</v>
       </c>
       <c r="P7" s="20">
@@ -3480,17 +3538,17 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="69">
-        <v>1</v>
-      </c>
-      <c r="D8" s="72">
+      <c r="C8" s="68">
+        <v>1</v>
+      </c>
+      <c r="D8" s="71">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3517,22 +3575,22 @@
         <v>92.973607038123163</v>
       </c>
       <c r="K8" s="15"/>
-      <c r="V8" s="68">
+      <c r="V8" s="67">
         <f>SUM(V2:V7)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="69">
-        <v>1</v>
-      </c>
-      <c r="D9" s="70">
+      <c r="C9" s="68">
+        <v>1</v>
+      </c>
+      <c r="D9" s="69">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3560,7 +3618,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
@@ -3570,7 +3628,7 @@
       <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3597,7 +3655,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
@@ -3634,7 +3692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -3649,7 +3707,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="20">
-        <f t="shared" ref="E12:E29" si="7">VLOOKUP(A12,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F12" s="21">
@@ -3671,7 +3729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
@@ -3686,7 +3744,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F13" s="21">
@@ -3705,15 +3763,15 @@
         <v>76</v>
       </c>
       <c r="J13" s="20">
-        <v>89.643463497453311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>105.64346349745331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
@@ -3723,12 +3781,12 @@
         <v>2</v>
       </c>
       <c r="E14" s="20">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>75</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="5"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
@@ -3736,31 +3794,31 @@
       </c>
       <c r="H14" s="20">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="J14" s="20">
-        <v>966.71708597005716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+        <v>974.71708597005716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="49">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E15" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="F15" s="21">
@@ -3776,12 +3834,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="30">
         <v>1</v>
@@ -3791,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="F16" s="21">
@@ -3807,12 +3865,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="30">
         <v>1</v>
@@ -3821,12 +3879,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E17" s="20">
-        <f t="shared" si="7"/>
+      <c r="E17">
+        <f t="shared" ref="E17:E30" si="7">VLOOKUP(A17,$M$1:$W$8,5,FALSE)</f>
         <v>75</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F17:F30" si="8">60/E17*C17</f>
         <v>0.8</v>
       </c>
       <c r="G17">
@@ -3834,30 +3892,30 @@
         <v>20</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" ref="H17:H21" si="8">D17*F17*G17</f>
+        <f>D17*F17*G17</f>
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="30">
-        <v>1</v>
-      </c>
-      <c r="D18" s="49">
+        <v>62</v>
+      </c>
+      <c r="C18" s="68">
+        <v>1</v>
+      </c>
+      <c r="D18" s="70">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(A18,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="F18" s="21">
-        <f>60/E18*C18</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="G18">
@@ -3865,18 +3923,18 @@
         <v>20</v>
       </c>
       <c r="H18" s="20">
-        <f>D18*F18*G18</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="69">
+        <v>0</v>
+      </c>
+      <c r="C19" s="68">
         <v>1</v>
       </c>
       <c r="D19" s="71">
@@ -3884,90 +3942,90 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(A19,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="F19" s="21">
-        <f>60/E19*C19</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G19:G30" si="9">VLOOKUP(A19,$M$1:$W$8,8,FALSE)</f>
         <v>20</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H19:H26" si="10">D19*F19*G19</f>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="69">
-        <v>1</v>
-      </c>
-      <c r="D20" s="72">
+        <v>76</v>
+      </c>
+      <c r="C20" s="30">
+        <v>1</v>
+      </c>
+      <c r="D20" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(A20,$M$1:$W$8,5,FALSE)</f>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="F20" s="21">
-        <f>60/E20*C20</f>
+        <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="30">
-        <v>1</v>
-      </c>
-      <c r="D21" s="49">
+        <v>6</v>
+      </c>
+      <c r="C21" s="68">
+        <v>1</v>
+      </c>
+      <c r="D21" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21">
         <f t="shared" si="7"/>
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="5"/>
-        <v>1.5789473684210527</v>
+        <f t="shared" si="8"/>
+        <v>0.8</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="8"/>
-        <v>31.578947368421055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C22" s="30">
         <v>1</v>
@@ -3981,24 +4039,24 @@
         <v>38</v>
       </c>
       <c r="F22" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31.578947368421055</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C23" s="30">
         <v>1</v>
@@ -4012,24 +4070,24 @@
         <v>38</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31.578947368421055</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C24" s="30">
         <v>1</v>
@@ -4043,24 +4101,24 @@
         <v>38</v>
       </c>
       <c r="F24" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31.578947368421055</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="30">
         <v>1</v>
@@ -4074,24 +4132,24 @@
         <v>38</v>
       </c>
       <c r="F25" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31.578947368421055</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26" s="30">
         <v>1</v>
@@ -4105,60 +4163,60 @@
         <v>38</v>
       </c>
       <c r="F26" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5789473684210527</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>31.578947368421055</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="C27" s="30">
         <v>1</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27">
         <f t="shared" si="7"/>
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="F27" s="21">
-        <f t="shared" si="5"/>
-        <v>0.54545454545454541</v>
+        <f t="shared" si="8"/>
+        <v>1.5789473684210527</v>
       </c>
       <c r="G27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="6"/>
-        <v>10.909090909090908</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H27:H30" si="11">D27*F27*G27</f>
+        <v>31.578947368421055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C28" s="30">
         <v>1</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4167,24 +4225,24 @@
         <v>110</v>
       </c>
       <c r="F28" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="G28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C29" s="30">
         <v>1</v>
@@ -4198,40 +4256,57 @@
         <v>110</v>
       </c>
       <c r="F29" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="G29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="F30" s="21">
+        <f t="shared" si="8"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="11"/>
+        <v>10.909090909090908</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+      <c r="A32" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="75"/>
-    </row>
-    <row r="32" spans="1:9" ht="80" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="57" t="s">
+      <c r="B32" s="74"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="56" t="s">
         <v>88</v>
       </c>
       <c r="G32" s="29" t="s">
@@ -4244,634 +4319,655 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="52" t="str">
+        <f>VLOOKUP(A34,Соответствие!A:B,2,FALSE)</f>
+        <v>open_site</v>
+      </c>
+      <c r="G33" s="58">
+        <f t="shared" ref="G33:G44" si="12">C34/3</f>
+        <v>172.5525544065442</v>
+      </c>
+      <c r="H33" s="48">
+        <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
+        <v>162</v>
+      </c>
+      <c r="I33" s="26">
+        <f t="shared" ref="I33:I44" si="13">1-G33/H33</f>
+        <v>-6.5139224731754375E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="40">
+      <c r="B34" s="40">
         <v>520</v>
       </c>
-      <c r="C33" s="28">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)*3</f>
+      <c r="C34" s="28">
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
         <v>517.65766321963258</v>
       </c>
-      <c r="D33" s="56">
-        <f>1-B33/C33</f>
+      <c r="D34" s="55">
+        <f>1-B34/C34</f>
         <v>-4.5248760847063085E-3</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="53" t="str">
-        <f>VLOOKUP(A33,Соответствие!A:B,2,FALSE)</f>
-        <v>open_site</v>
-      </c>
-      <c r="G33" s="59">
-        <f>C33/3</f>
-        <v>172.5525544065442</v>
-      </c>
-      <c r="H33" s="48" t="e">
-        <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I33" s="26" t="e">
-        <f t="shared" ref="I33:I44" si="9">1-G33/H33</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A34" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="40">
-        <v>422</v>
-      </c>
-      <c r="C34" s="28">
-        <f t="shared" ref="C34:C44" si="10">GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)*3</f>
-        <v>421.65766321963258</v>
-      </c>
-      <c r="D34" s="56">
-        <f>1-B34/C34</f>
-        <v>-8.1188321766401117E-4</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="53" t="str">
-        <f>VLOOKUP(A34,Соответствие!A:B,2,FALSE)</f>
+      <c r="E34" s="53"/>
+      <c r="F34" s="52" t="str">
+        <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
         <v>login</v>
       </c>
-      <c r="G34" s="59">
-        <f t="shared" ref="G34:G44" si="11">C34/3</f>
+      <c r="G34" s="58">
+        <f t="shared" si="12"/>
         <v>140.5525544065442</v>
       </c>
       <c r="H34" s="48">
         <f>VLOOKUP(F34,SummaryReport!A:J,8,FALSE)</f>
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I34" s="26">
-        <f t="shared" si="9"/>
-        <v>-3.3474664754001404E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+        <f t="shared" si="13"/>
+        <v>-0.14270369436214803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="40">
+        <v>422</v>
+      </c>
+      <c r="C35" s="28">
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)*3</f>
+        <v>421.65766321963258</v>
+      </c>
+      <c r="D35" s="55">
+        <f>1-B35/C35</f>
+        <v>-8.1188321766401117E-4</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="52" t="str">
+        <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
+        <v>search_flights_button</v>
+      </c>
+      <c r="G35" s="58">
+        <f t="shared" si="12"/>
+        <v>105.64346349745331</v>
+      </c>
+      <c r="H35" s="48">
+        <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
+        <v>89</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="13"/>
+        <v>-0.18700520783655405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B36" s="40">
         <v>305</v>
       </c>
-      <c r="C35" s="28">
-        <v>314</v>
-      </c>
-      <c r="D35" s="56">
-        <f>1-B35/C35</f>
-        <v>2.8662420382165599E-2</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="53" t="str">
-        <f>VLOOKUP(A35,Соответствие!A:B,2,FALSE)</f>
-        <v>search_flights_button</v>
-      </c>
-      <c r="G35" s="59">
-        <f t="shared" si="11"/>
-        <v>104.66666666666667</v>
-      </c>
-      <c r="H35" s="48" t="e">
-        <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I35" s="26"/>
-    </row>
-    <row r="36" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A36" s="41" t="s">
+      <c r="C36" s="28">
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A36)*3</f>
+        <v>316.93039049235995</v>
+      </c>
+      <c r="D36" s="55">
+        <f>1-B36/C36</f>
+        <v>3.7643567326647864E-2</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="52" t="str">
+        <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
+        <v>choose_ticket</v>
+      </c>
+      <c r="G36" s="58">
+        <f t="shared" si="12"/>
+        <v>89.643463497453311</v>
+      </c>
+      <c r="H36" s="48">
+        <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
+        <v>76</v>
+      </c>
+      <c r="I36" s="26">
+        <f t="shared" si="13"/>
+        <v>-0.17951925654543821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="40">
+      <c r="B37" s="40">
         <v>282</v>
       </c>
-      <c r="C36" s="28">
-        <f t="shared" si="10"/>
+      <c r="C37" s="28">
+        <f t="shared" ref="C37:C45" si="14">GETPIVOTDATA("Итого",$I$1,"transaction rq",A37)*3</f>
         <v>268.93039049235995</v>
       </c>
-      <c r="D36" s="52">
-        <f t="shared" ref="D36:D45" si="12">1-B36/C36</f>
+      <c r="D37" s="51">
+        <f t="shared" ref="D37:D46" si="15">1-B37/C37</f>
         <v>-4.8598484848484835E-2</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="53" t="str">
-        <f>VLOOKUP(A36,Соответствие!A:B,2,FALSE)</f>
-        <v>search_ticket</v>
-      </c>
-      <c r="G36" s="59">
-        <f t="shared" si="11"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="52" t="str">
+        <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
+        <v>choose_time_of_flight</v>
+      </c>
+      <c r="G37" s="58">
+        <f t="shared" si="12"/>
         <v>89.643463497453311</v>
       </c>
-      <c r="H36" s="48" t="e">
-        <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I36" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="41" t="s">
+      <c r="H37" s="48">
+        <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
+        <v>76</v>
+      </c>
+      <c r="I37" s="26">
+        <f t="shared" si="13"/>
+        <v>-0.17951925654543821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B38" s="40">
         <v>270</v>
       </c>
-      <c r="C37" s="28">
-        <f t="shared" si="10"/>
+      <c r="C38" s="28">
+        <f t="shared" si="14"/>
         <v>268.93039049235995</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D38" s="51">
+        <f t="shared" si="15"/>
+        <v>-3.9772727272726627E-3</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="52" t="str">
+        <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
+        <v>payment</v>
+      </c>
+      <c r="G38" s="58">
         <f t="shared" si="12"/>
-        <v>-3.9772727272726627E-3</v>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="53" t="str">
-        <f>VLOOKUP(A37,Соответствие!A:B,2,FALSE)</f>
-        <v>search_time_of_flight</v>
-      </c>
-      <c r="G37" s="59">
-        <f t="shared" si="11"/>
-        <v>89.643463497453311</v>
-      </c>
-      <c r="H37" s="48" t="e">
-        <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I37" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="41" t="s">
+        <v>58.064516129032256</v>
+      </c>
+      <c r="H38" s="48">
+        <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
+        <v>51</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" si="13"/>
+        <v>-0.13851992409867164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B39" s="40">
         <v>175</v>
       </c>
-      <c r="C38" s="28">
-        <f t="shared" si="10"/>
+      <c r="C39" s="28">
+        <f t="shared" si="14"/>
         <v>174.19354838709677</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D39" s="51">
+        <f t="shared" si="15"/>
+        <v>-4.6296296296297612E-3</v>
+      </c>
+      <c r="E39" s="66"/>
+      <c r="F39" s="52" t="str">
+        <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
+        <v>itinerary</v>
+      </c>
+      <c r="G39" s="58">
         <f t="shared" si="12"/>
-        <v>-4.6296296296297612E-3</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="53" t="str">
-        <f>VLOOKUP(A38,Соответствие!A:B,2,FALSE)</f>
-        <v>payment</v>
-      </c>
-      <c r="G38" s="59">
-        <f t="shared" si="11"/>
-        <v>58.064516129032256</v>
-      </c>
-      <c r="H38" s="48" t="e">
-        <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
+        <v>92.973607038123149</v>
+      </c>
+      <c r="H39" s="48">
+        <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
+        <v>83</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" si="13"/>
+        <v>-0.1201639402183512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B40" s="40">
         <v>280</v>
       </c>
-      <c r="C39" s="28">
-        <f t="shared" si="10"/>
+      <c r="C40" s="28">
+        <f t="shared" si="14"/>
         <v>278.92082111436946</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D40" s="51">
+        <f t="shared" si="15"/>
+        <v>-3.8691227184795007E-3</v>
+      </c>
+      <c r="E40" s="53"/>
+      <c r="F40" s="52" t="str">
+        <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
+        <v>delete_booking</v>
+      </c>
+      <c r="G40" s="58">
         <f t="shared" si="12"/>
-        <v>-3.8691227184795007E-3</v>
-      </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="53" t="str">
-        <f>VLOOKUP(A39,Соответствие!A:B,2,FALSE)</f>
-        <v>itinerary</v>
-      </c>
-      <c r="G39" s="59">
-        <f t="shared" si="11"/>
-        <v>92.973607038123149</v>
-      </c>
-      <c r="H39" s="48" t="e">
-        <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I39" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="48">
+        <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
+        <v>22</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="13"/>
+        <v>-9.0909090909090828E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B41" s="40">
         <v>73</v>
       </c>
-      <c r="C40" s="28">
-        <f t="shared" si="10"/>
+      <c r="C41" s="28">
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D41" s="51">
+        <f t="shared" si="15"/>
+        <v>-1.388888888888884E-2</v>
+      </c>
+      <c r="E41" s="53"/>
+      <c r="F41" s="52" t="str">
+        <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
+        <v>logout</v>
+      </c>
+      <c r="G41" s="58">
         <f t="shared" si="12"/>
-        <v>-1.388888888888884E-2</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="53" t="str">
-        <f>VLOOKUP(A40,Соответствие!A:B,2,FALSE)</f>
-        <v>delete_booking</v>
-      </c>
-      <c r="G40" s="59">
-        <f t="shared" si="11"/>
-        <v>24</v>
-      </c>
-      <c r="H40" s="48" t="e">
-        <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I40" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="40">
-        <v>326</v>
-      </c>
-      <c r="C41" s="28">
-        <f t="shared" si="10"/>
-        <v>340.93039049235995</v>
-      </c>
-      <c r="D41" s="52">
-        <f t="shared" si="12"/>
-        <v>4.3793075973068807E-2</v>
-      </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="53" t="str">
-        <f>VLOOKUP(A41,Соответствие!A:B,2,FALSE)</f>
-        <v>logout</v>
-      </c>
-      <c r="G41" s="59">
-        <f t="shared" si="11"/>
-        <v>113.64346349745331</v>
+        <v>105.64346349745331</v>
       </c>
       <c r="H41" s="48">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="I41" s="26">
-        <f t="shared" si="9"/>
-        <v>-6.2088443901432866E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>-0.27281281322232909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="40">
+        <v>326</v>
+      </c>
+      <c r="C42" s="28">
+        <f t="shared" si="14"/>
+        <v>316.93039049235995</v>
+      </c>
+      <c r="D42" s="51">
+        <f t="shared" si="15"/>
+        <v>-2.8617039513156639E-2</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="52" t="str">
+        <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
+        <v>sign_up_button</v>
+      </c>
+      <c r="G42" s="58">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="H42" s="48">
+        <f>VLOOKUP(F42,SummaryReport!A:J,8,FALSE)</f>
+        <v>32</v>
+      </c>
+      <c r="I42" s="26">
+        <f>1-G42/H42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="41" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" s="40">
-        <v>97</v>
-      </c>
-      <c r="C42" s="28">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="D42" s="52">
-        <f t="shared" si="12"/>
-        <v>-1.0416666666666741E-2</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53" t="str">
-        <f>VLOOKUP(A42,Соответствие!A:B,2,FALSE)</f>
-        <v>sign_up_button</v>
-      </c>
-      <c r="G42" s="59">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="H42" s="48"/>
-      <c r="I42" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="38" x14ac:dyDescent="0.2">
-      <c r="A43" s="41" t="s">
-        <v>63</v>
       </c>
       <c r="B43" s="40">
         <v>97</v>
       </c>
       <c r="C43" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="51">
+        <f t="shared" si="15"/>
+        <v>-1.0416666666666741E-2</v>
+      </c>
+      <c r="E43" s="53"/>
+      <c r="F43" s="52" t="str">
+        <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
+        <v>profile_fill</v>
+      </c>
+      <c r="G43" s="58">
         <f t="shared" si="12"/>
-        <v>-1.0416666666666741E-2</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="53" t="str">
-        <f>VLOOKUP(A43,Соответствие!A:B,2,FALSE)</f>
-        <v>profile_fill</v>
-      </c>
-      <c r="G43" s="59">
-        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="H43" s="48"/>
-      <c r="I43" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="38" x14ac:dyDescent="0.2">
+      <c r="H43" s="48">
+        <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="I43" s="26">
+        <f t="shared" si="13"/>
+        <v>-3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" s="40">
         <v>97</v>
       </c>
       <c r="C44" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="51">
+        <f t="shared" si="15"/>
+        <v>-1.0416666666666741E-2</v>
+      </c>
+      <c r="E44" s="53"/>
+      <c r="F44" s="52" t="str">
+        <f>VLOOKUP(A45,Соответствие!A:B,2,FALSE)</f>
+        <v>after_reg</v>
+      </c>
+      <c r="G44" s="58">
         <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="H44" s="48">
+        <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
+        <v>31</v>
+      </c>
+      <c r="I44" s="26">
+        <f t="shared" si="13"/>
+        <v>-3.2258064516129004E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="40">
+        <v>97</v>
+      </c>
+      <c r="C45" s="28">
+        <f t="shared" si="14"/>
+        <v>96</v>
+      </c>
+      <c r="D45" s="51">
+        <f t="shared" si="15"/>
         <v>-1.0416666666666741E-2</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="53" t="str">
-        <f>VLOOKUP(A44,Соответствие!A:B,2,FALSE)</f>
-        <v>after_reg</v>
-      </c>
-      <c r="G44" s="59">
-        <f t="shared" si="11"/>
-        <v>32</v>
-      </c>
-      <c r="H44" s="48"/>
-      <c r="I44" s="26" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
+    </row>
+    <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="44">
-        <f>SUM(B33:B44)</f>
+      <c r="B46" s="44">
+        <f>SUM(B34:B45)</f>
         <v>2944</v>
       </c>
-      <c r="C45" s="27">
-        <f>SUM(C33:C44)</f>
-        <v>2945.2208674178114</v>
-      </c>
-      <c r="D45" s="25">
-        <f t="shared" si="12"/>
-        <v>4.1452491095572697E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="27">
+        <f>SUM(C34:C45)</f>
+        <v>2924.1512579101714</v>
+      </c>
+      <c r="D46" s="25">
+        <f t="shared" si="15"/>
+        <v>-6.7878643541900985E-3</v>
+      </c>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C47" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="32"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>90</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>70</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>72</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>71</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>73</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H49" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="60" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="61">
+      <c r="B50" s="60">
         <f>124/3</f>
         <v>41.333333333333336</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C50" s="36">
         <v>57</v>
       </c>
-      <c r="D49" s="33">
-        <f>60/C49</f>
+      <c r="D50" s="33">
+        <f>60/C50</f>
         <v>1.0526315789473684</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E50" s="47">
         <v>20</v>
       </c>
-      <c r="F49" s="45">
-        <f>B49/(D49*E49)</f>
+      <c r="F50" s="45">
+        <f>B50/(D50*E50)</f>
         <v>1.9633333333333336</v>
       </c>
-      <c r="G49" s="20">
-        <f>ROUND(F49,0)</f>
+      <c r="G50" s="20">
+        <f>ROUND(F50,0)</f>
         <v>2</v>
       </c>
-      <c r="H49" s="20">
-        <f>G49*D49*E49</f>
+      <c r="H50" s="20">
+        <f>G50*D50*E50</f>
         <v>42.105263157894733</v>
       </c>
-      <c r="I49" s="31">
-        <f>1-B49/H49</f>
+      <c r="I50" s="31">
+        <f>1-B50/H50</f>
         <v>1.8333333333333202E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="61">
+      <c r="B51" s="60">
         <f>150/3</f>
         <v>50</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C51" s="36">
         <v>25</v>
       </c>
-      <c r="D50" s="33">
-        <f>60/C50</f>
+      <c r="D51" s="33">
+        <f>60/C51</f>
         <v>2.4</v>
       </c>
-      <c r="E50" s="47">
+      <c r="E51" s="47">
         <v>20</v>
       </c>
-      <c r="F50" s="45">
-        <f>B50/(D50*E50)</f>
+      <c r="F51" s="45">
+        <f>B51/(D51*E51)</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="G50" s="20">
-        <f>ROUND(F50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H50" s="20">
-        <f>G50*D50*E50</f>
+      <c r="G51" s="20">
+        <f>ROUND(F51,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="20">
+        <f>G51*D51*E51</f>
         <v>48</v>
       </c>
-      <c r="I50" s="31">
-        <f>1-B50/H50</f>
+      <c r="I51" s="31">
+        <f>1-B51/H51</f>
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="62">
+      <c r="B52" s="61">
         <f>30/3</f>
         <v>10</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C52" s="46">
         <v>115</v>
       </c>
-      <c r="D51" s="33">
-        <f>60/C51</f>
+      <c r="D52" s="33">
+        <f>60/C52</f>
         <v>0.52173913043478259</v>
       </c>
-      <c r="E51" s="47">
+      <c r="E52" s="47">
         <v>20</v>
       </c>
-      <c r="F51" s="45">
-        <f>B51/(D51*E51)</f>
+      <c r="F52" s="45">
+        <f>B52/(D52*E52)</f>
         <v>0.95833333333333337</v>
       </c>
-      <c r="G51" s="20">
-        <v>1</v>
-      </c>
-      <c r="H51" s="20">
-        <f>G51*D51*E51</f>
+      <c r="G52" s="20">
+        <f t="shared" ref="G52:G54" si="16">ROUND(F52,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H52" s="20">
+        <f>G52*D52*E52</f>
         <v>10.434782608695652</v>
       </c>
-      <c r="I51" s="31">
-        <f>1-B51/H51</f>
+      <c r="I52" s="31">
+        <f>1-B52/H52</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="60" t="s">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="61">
+      <c r="B53" s="60">
         <f>20/3</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C53" s="36">
         <v>180</v>
       </c>
-      <c r="D52" s="33">
-        <f>60/C52</f>
+      <c r="D53" s="33">
+        <f>60/C53</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E52" s="47">
+      <c r="E53" s="47">
         <v>20</v>
       </c>
-      <c r="F52" s="45">
-        <f>B52/(D52*E52)</f>
+      <c r="F53" s="45">
+        <f>B53/(D53*E53)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="G52" s="20">
-        <v>1</v>
-      </c>
-      <c r="H52" s="20">
-        <f>G52*D52*E52</f>
+      <c r="G53" s="20">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="20">
+        <f>G53*D53*E53</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="I52" s="31">
-        <f>1-B52/H52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="60" t="s">
+      <c r="I53" s="31">
+        <f>1-B53/H53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="61">
+      <c r="B54" s="60">
         <f>120/3</f>
         <v>40</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C54" s="36">
         <v>30</v>
       </c>
-      <c r="D53" s="33">
-        <f>60/C53</f>
+      <c r="D54" s="33">
+        <f>60/C54</f>
         <v>2</v>
       </c>
-      <c r="E53" s="47">
+      <c r="E54" s="47">
         <v>20</v>
       </c>
-      <c r="F53" s="45">
-        <f>B53/(D53*E53)</f>
-        <v>1</v>
-      </c>
-      <c r="G53" s="20">
-        <f>ROUND(F53,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H53" s="20">
-        <f>G53*D53*E53</f>
+      <c r="F54" s="45">
+        <f>B54/(D54*E54)</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="20">
+        <f>G54*D54*E54</f>
         <v>40</v>
       </c>
-      <c r="I53" s="31">
-        <f>1-B53/H53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G54" s="20">
-        <f>SUM(G49:G53)</f>
+      <c r="I54" s="31">
+        <f>1-B54/H54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="20">
+        <f>SUM(G50:G54)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>104</v>
       </c>
@@ -4888,30 +4984,28 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="20">
-        <f>VLOOKUP(A58,$A$49:$H$53,6,FALSE)</f>
-        <v>1.9633333333333336</v>
-      </c>
-      <c r="D58">
-        <f>VLOOKUP(A58,$A$49:$H$53,3,FALSE)</f>
-        <v>57</v>
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
       </c>
       <c r="E58" s="20">
-        <f>60/D58</f>
+        <f t="shared" ref="E58:E83" si="17">60/D59</f>
         <v>1.0526315789473684</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58" s="20">
-        <f>C58*E58*F58</f>
+        <f t="shared" ref="G58:G83" si="18">C59*E58*F58</f>
         <v>41.333333333333336</v>
       </c>
       <c r="I58" s="17" t="s">
@@ -4921,30 +5015,30 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C59" s="20">
-        <f t="shared" ref="C59:C83" si="13">VLOOKUP(A59,$A$49:$H$53,6,FALSE)</f>
+        <f>VLOOKUP(A59,$A$49:$H$53,6,FALSE)</f>
         <v>1.9633333333333336</v>
       </c>
       <c r="D59">
-        <f t="shared" ref="D59:D83" si="14">VLOOKUP(A59,$A$49:$H$53,3,FALSE)</f>
+        <f>VLOOKUP(A59,$A$49:$H$53,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E59" s="20">
-        <f t="shared" ref="E59:E83" si="15">60/D59</f>
+        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F59">
         <v>20</v>
       </c>
       <c r="G59" s="20">
-        <f t="shared" ref="G59:G83" si="16">C59*E59*F59</f>
+        <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I59" s="17" t="s">
@@ -4954,30 +5048,30 @@
         <v>154.66666666666669</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C60" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="C60:C84" si="19">VLOOKUP(A60,$A$49:$H$53,6,FALSE)</f>
         <v>1.9633333333333336</v>
       </c>
       <c r="D60">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D60:D84" si="20">VLOOKUP(A60,$A$49:$H$53,3,FALSE)</f>
         <v>57</v>
       </c>
       <c r="E60" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I60" s="17" t="s">
@@ -4987,96 +5081,96 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="E61" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F61">
         <v>20</v>
       </c>
       <c r="G61" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="I61" s="63" t="s">
+      <c r="I61" s="62" t="s">
         <v>97</v>
       </c>
       <c r="J61" s="20">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C62" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="E62" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F62">
         <v>20</v>
       </c>
       <c r="G62" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="I62" s="63" t="s">
+      <c r="I62" s="62" t="s">
         <v>67</v>
       </c>
       <c r="J62" s="20">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="E63" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F63">
         <v>20</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
       <c r="I63" s="17" t="s">
@@ -5086,63 +5180,63 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.9633333333333336</v>
       </c>
       <c r="D64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="E64" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0526315789473684</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>41.333333333333336</v>
       </c>
-      <c r="I64" s="63" t="s">
+      <c r="I64" s="62" t="s">
         <v>96</v>
       </c>
       <c r="J64" s="20">
         <v>41.333333333333336</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C65" s="20">
-        <f t="shared" si="13"/>
-        <v>1.0416666666666667</v>
+        <f t="shared" si="19"/>
+        <v>1.9633333333333336</v>
       </c>
       <c r="D65">
-        <f t="shared" si="14"/>
-        <v>25</v>
+        <f t="shared" si="20"/>
+        <v>57</v>
       </c>
       <c r="E65" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="F65">
         <v>20</v>
       </c>
       <c r="G65" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I65" s="17" t="s">
@@ -5152,63 +5246,63 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C66" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="E66" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="F66">
         <v>20</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="I66" s="63" t="s">
+      <c r="I66" s="62" t="s">
         <v>100</v>
       </c>
       <c r="J66" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C67" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="D67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="E67" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4</v>
       </c>
       <c r="F67">
         <v>20</v>
       </c>
       <c r="G67" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
       <c r="I67" s="17" t="s">
@@ -5218,169 +5312,169 @@
         <v>696.00000000000011</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C68" s="20">
-        <f t="shared" si="13"/>
-        <v>0.95833333333333337</v>
+        <f t="shared" si="19"/>
+        <v>1.0416666666666667</v>
       </c>
       <c r="D68">
-        <f t="shared" si="14"/>
-        <v>115</v>
+        <f t="shared" si="20"/>
+        <v>25</v>
       </c>
       <c r="E68" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
       <c r="G68" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C69" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="E69" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F69">
         <v>20</v>
       </c>
       <c r="G69" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C70" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="E70" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F70">
         <v>20</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C71" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D71">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="E71" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F71">
         <v>20</v>
       </c>
       <c r="G71" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C72" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.95833333333333337</v>
       </c>
       <c r="D72">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="E72" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="F72">
         <v>20</v>
       </c>
       <c r="G72" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C73" s="20">
-        <f t="shared" si="13"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="19"/>
+        <v>0.95833333333333337</v>
       </c>
       <c r="D73">
-        <f t="shared" si="14"/>
-        <v>180</v>
+        <f t="shared" si="20"/>
+        <v>115</v>
       </c>
       <c r="E73" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F73">
         <v>20</v>
       </c>
       <c r="G73" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>68</v>
       </c>
@@ -5388,271 +5482,287 @@
         <v>92</v>
       </c>
       <c r="C74" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="E74" s="20">
-        <f>60/D74</f>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F74">
         <v>20</v>
       </c>
       <c r="G74" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C75" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="E75" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F75">
         <v>20</v>
       </c>
       <c r="G75" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C76" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="E76" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F76">
         <v>20</v>
       </c>
       <c r="G76" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="E77" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F77">
         <v>20</v>
       </c>
       <c r="G77" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="E78" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F78">
         <v>20</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C79" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>180</v>
       </c>
       <c r="E79" s="20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="F79">
         <v>20</v>
       </c>
       <c r="G79" s="20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C80" s="20">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D80">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E80" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <f t="shared" si="20"/>
+        <v>180</v>
+      </c>
+      <c r="E80" s="20" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
       </c>
       <c r="F80">
         <v>20</v>
       </c>
-      <c r="G80" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G80" s="20" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="20">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E81" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="C81" s="20" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D81" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E81" s="20" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
       </c>
       <c r="F81">
         <v>20</v>
       </c>
-      <c r="G81" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="20" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C82" s="20">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E82" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="C82" s="20" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D82" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E82" s="20" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
       </c>
       <c r="F82">
         <v>20</v>
       </c>
-      <c r="G82" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G82" s="20" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="20">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="E83" s="20">
-        <f t="shared" si="15"/>
-        <v>2</v>
+        <v>99</v>
+      </c>
+      <c r="C83" s="20" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D83" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E83" s="20" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
       </c>
       <c r="F83">
         <v>20</v>
       </c>
-      <c r="G83" s="20">
-        <f t="shared" si="16"/>
-        <v>40</v>
+      <c r="G83" s="20" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="20" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D84" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5661,20 +5771,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -5682,112 +5792,112 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f>'Автоматизированный расчет'!A33</f>
+        <f>'[1]Автоматизированный расчет'!A34</f>
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <f>'Автоматизированный расчет'!A34</f>
+        <f>'[1]Автоматизированный расчет'!A35</f>
         <v>Вход в систему</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>'Автоматизированный расчет'!A35</f>
+        <f>'[1]Автоматизированный расчет'!A36</f>
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>'Автоматизированный расчет'!A36</f>
+        <f>'[1]Автоматизированный расчет'!A37</f>
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>'Автоматизированный расчет'!A37</f>
+        <f>'[1]Автоматизированный расчет'!A38</f>
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>'Автоматизированный расчет'!A38</f>
+        <f>'[1]Автоматизированный расчет'!A39</f>
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>'Автоматизированный расчет'!A39</f>
+        <f>'[1]Автоматизированный расчет'!A40</f>
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>'Автоматизированный расчет'!A40</f>
+        <f>'[1]Автоматизированный расчет'!A41</f>
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>'Автоматизированный расчет'!A41</f>
+        <f>'[1]Автоматизированный расчет'!A42</f>
         <v>Выход из системы</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>'Автоматизированный расчет'!A42</f>
+        <f>'[1]Автоматизированный расчет'!A43</f>
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>'Автоматизированный расчет'!A43</f>
+        <f>'[1]Автоматизированный расчет'!A44</f>
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>'Автоматизированный расчет'!A44</f>
+        <f>'[1]Автоматизированный расчет'!A45</f>
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5796,655 +5906,655 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="72" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="73">
-        <v>0.188</v>
-      </c>
-      <c r="D2" s="73">
-        <v>0.434</v>
-      </c>
-      <c r="E2" s="73">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F2" s="73">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="G2" s="73">
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="H2" s="73">
-        <v>169</v>
-      </c>
-      <c r="I2" s="73">
-        <v>0</v>
-      </c>
-      <c r="J2" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" t="s">
+      <c r="C2" s="76">
+        <v>0</v>
+      </c>
+      <c r="D2" s="76">
+        <v>0</v>
+      </c>
+      <c r="E2" s="76">
+        <v>29.324000000000002</v>
+      </c>
+      <c r="F2" s="76">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="G2" s="76">
+        <v>2.089</v>
+      </c>
+      <c r="H2" s="76">
+        <v>147</v>
+      </c>
+      <c r="I2" s="76">
+        <v>13</v>
+      </c>
+      <c r="J2" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="76">
+        <v>0</v>
+      </c>
+      <c r="D3" s="76">
+        <v>0</v>
+      </c>
+      <c r="E3" s="76">
+        <v>0.371</v>
+      </c>
+      <c r="F3" s="76">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G3" s="76">
+        <v>0.317</v>
+      </c>
+      <c r="H3" s="76">
+        <v>31</v>
+      </c>
+      <c r="I3" s="76">
+        <v>0</v>
+      </c>
+      <c r="J3" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="76">
+        <v>0</v>
+      </c>
+      <c r="D4" s="76">
+        <v>0</v>
+      </c>
+      <c r="E4" s="76">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F4" s="76">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G4" s="76">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H4" s="76">
+        <v>76</v>
+      </c>
+      <c r="I4" s="76">
+        <v>1</v>
+      </c>
+      <c r="J4" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="76">
+        <v>0</v>
+      </c>
+      <c r="D5" s="76">
+        <v>0</v>
+      </c>
+      <c r="E5" s="76">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F5" s="76">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G5" s="76">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="H5" s="76">
+        <v>76</v>
+      </c>
+      <c r="I5" s="76">
+        <v>0</v>
+      </c>
+      <c r="J5" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="76">
+        <v>0</v>
+      </c>
+      <c r="D6" s="76">
+        <v>0</v>
+      </c>
+      <c r="E6" s="76">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="F6" s="76">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G6" s="76">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="H6" s="76">
+        <v>22</v>
+      </c>
+      <c r="I6" s="76">
+        <v>0</v>
+      </c>
+      <c r="J6" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="76">
+        <v>0</v>
+      </c>
+      <c r="D7" s="76">
+        <v>0</v>
+      </c>
+      <c r="E7" s="76">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="F7" s="76">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G7" s="76">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="H7" s="76">
+        <v>83</v>
+      </c>
+      <c r="I7" s="76">
+        <v>1</v>
+      </c>
+      <c r="J7" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="76">
+        <v>0</v>
+      </c>
+      <c r="D8" s="76">
+        <v>0</v>
+      </c>
+      <c r="E8" s="76">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="F8" s="76">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G8" s="76">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="H8" s="76">
+        <v>123</v>
+      </c>
+      <c r="I8" s="76">
+        <v>4</v>
+      </c>
+      <c r="J8" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="76">
+        <v>0</v>
+      </c>
+      <c r="D9" s="76">
+        <v>0</v>
+      </c>
+      <c r="E9" s="76">
+        <v>27.943999999999999</v>
+      </c>
+      <c r="F9" s="76">
+        <v>3.0209999999999999</v>
+      </c>
+      <c r="G9" s="76">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="H9" s="76">
+        <v>83</v>
+      </c>
+      <c r="I9" s="76">
+        <v>0</v>
+      </c>
+      <c r="J9" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B10" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="73">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D3" s="73">
-        <v>0.111</v>
-      </c>
-      <c r="E3" s="73">
-        <v>0.156</v>
-      </c>
-      <c r="F3" s="73">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G3" s="73">
-        <v>0.128</v>
-      </c>
-      <c r="H3" s="73">
-        <v>97</v>
-      </c>
-      <c r="I3" s="73">
-        <v>0</v>
-      </c>
-      <c r="J3" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="73" t="s">
+      <c r="C10" s="76">
+        <v>0</v>
+      </c>
+      <c r="D10" s="76">
+        <v>0</v>
+      </c>
+      <c r="E10" s="76">
+        <v>27.417999999999999</v>
+      </c>
+      <c r="F10" s="76">
+        <v>3.403</v>
+      </c>
+      <c r="G10" s="76">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="H10" s="76">
+        <v>162</v>
+      </c>
+      <c r="I10" s="76">
+        <v>0</v>
+      </c>
+      <c r="J10" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D4" s="73">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E4" s="73">
-        <v>6.3E-2</v>
-      </c>
-      <c r="F4" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="73">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H4" s="73">
-        <v>24</v>
-      </c>
-      <c r="I4" s="73">
-        <v>0</v>
-      </c>
-      <c r="J4" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="C11" s="76">
+        <v>0</v>
+      </c>
+      <c r="D11" s="76">
+        <v>0</v>
+      </c>
+      <c r="E11" s="76">
+        <v>0.252</v>
+      </c>
+      <c r="F11" s="76">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G11" s="76">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H11" s="76">
+        <v>51</v>
+      </c>
+      <c r="I11" s="76">
+        <v>4</v>
+      </c>
+      <c r="J11" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="76">
+        <v>0</v>
+      </c>
+      <c r="D12" s="76">
+        <v>0</v>
+      </c>
+      <c r="E12" s="76">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="F12" s="76">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G12" s="76">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="H12" s="76">
+        <v>31</v>
+      </c>
+      <c r="I12" s="76">
+        <v>1</v>
+      </c>
+      <c r="J12" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B13" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D5" s="73">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E5" s="73">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="F5" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="G5" s="73">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H5" s="73">
-        <v>92</v>
-      </c>
-      <c r="I5" s="73">
-        <v>0</v>
-      </c>
-      <c r="J5" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="73" t="s">
+      <c r="C13" s="76">
+        <v>0</v>
+      </c>
+      <c r="D13" s="76">
+        <v>0</v>
+      </c>
+      <c r="E13" s="76">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="F13" s="76">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G13" s="76">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H13" s="76">
+        <v>89</v>
+      </c>
+      <c r="I13" s="76">
+        <v>2</v>
+      </c>
+      <c r="J13" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="73">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="D6" s="73">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="E6" s="73">
-        <v>0.123</v>
-      </c>
-      <c r="F6" s="73">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G6" s="73">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="H6" s="73">
+      <c r="C14" s="76">
+        <v>0</v>
+      </c>
+      <c r="D14" s="76">
+        <v>0</v>
+      </c>
+      <c r="E14" s="76">
+        <v>0.191</v>
+      </c>
+      <c r="F14" s="76">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G14" s="76">
+        <v>0.151</v>
+      </c>
+      <c r="H14" s="76">
         <v>32</v>
       </c>
-      <c r="I6" s="73">
-        <v>0</v>
-      </c>
-      <c r="J6" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="73" t="s">
+      <c r="I14" s="76">
+        <v>0</v>
+      </c>
+      <c r="J14" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="73">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D7" s="73">
-        <v>0.111</v>
-      </c>
-      <c r="E7" s="73">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="F7" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G7" s="73">
-        <v>0.128</v>
-      </c>
-      <c r="H7" s="73">
-        <v>98</v>
-      </c>
-      <c r="I7" s="73">
-        <v>0</v>
-      </c>
-      <c r="J7" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="73" t="s">
+      <c r="C15" s="76">
+        <v>0</v>
+      </c>
+      <c r="D15" s="76">
+        <v>0</v>
+      </c>
+      <c r="E15" s="76">
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="F15" s="76">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G15" s="76">
+        <v>1.234</v>
+      </c>
+      <c r="H15" s="76">
+        <v>12</v>
+      </c>
+      <c r="I15" s="76">
+        <v>1</v>
+      </c>
+      <c r="J15" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="73">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="D8" s="73">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="E8" s="73">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="F8" s="73">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G8" s="73">
-        <v>0.107</v>
-      </c>
-      <c r="H8" s="73">
-        <v>136</v>
-      </c>
-      <c r="I8" s="73">
-        <v>0</v>
-      </c>
-      <c r="J8" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="73" t="s">
+      <c r="C16" s="76">
+        <v>0</v>
+      </c>
+      <c r="D16" s="76">
+        <v>0</v>
+      </c>
+      <c r="E16" s="76">
+        <v>29.324000000000002</v>
+      </c>
+      <c r="F16" s="76">
+        <v>5.9459999999999997</v>
+      </c>
+      <c r="G16" s="76">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="H16" s="76">
+        <v>21</v>
+      </c>
+      <c r="I16" s="76">
+        <v>3</v>
+      </c>
+      <c r="J16" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="73">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="D9" s="73">
-        <v>7.8E-2</v>
-      </c>
-      <c r="E9" s="73">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F9" s="73">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G9" s="73">
+      <c r="C17" s="76">
+        <v>0</v>
+      </c>
+      <c r="D17" s="76">
+        <v>0</v>
+      </c>
+      <c r="E17" s="76">
+        <v>29.061</v>
+      </c>
+      <c r="F17" s="76">
+        <v>5.4989999999999997</v>
+      </c>
+      <c r="G17" s="76">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="H17" s="76">
+        <v>50</v>
+      </c>
+      <c r="I17" s="76">
+        <v>6</v>
+      </c>
+      <c r="J17" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="76">
+        <v>0</v>
+      </c>
+      <c r="D18" s="76">
+        <v>0</v>
+      </c>
+      <c r="E18" s="76">
+        <v>1.181</v>
+      </c>
+      <c r="F18" s="76">
+        <v>0.105</v>
+      </c>
+      <c r="G18" s="76">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H18" s="76">
+        <v>11</v>
+      </c>
+      <c r="I18" s="76">
+        <v>0</v>
+      </c>
+      <c r="J18" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="76">
+        <v>0</v>
+      </c>
+      <c r="D19" s="76">
+        <v>0</v>
+      </c>
+      <c r="E19" s="76">
+        <v>1.379</v>
+      </c>
+      <c r="F19" s="76">
         <v>0.1</v>
       </c>
-      <c r="H9" s="73">
-        <v>107</v>
-      </c>
-      <c r="I9" s="73">
-        <v>0</v>
-      </c>
-      <c r="J9" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="73" t="s">
+      <c r="G19" s="76">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H19" s="76">
+        <v>22</v>
+      </c>
+      <c r="I19" s="76">
+        <v>2</v>
+      </c>
+      <c r="J19" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="73">
-        <v>0.03</v>
-      </c>
-      <c r="D10" s="73">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E10" s="73">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F10" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G10" s="73">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H10" s="73">
-        <v>32</v>
-      </c>
-      <c r="I10" s="73">
-        <v>0</v>
-      </c>
-      <c r="J10" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="73">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D11" s="73">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="E11" s="73">
-        <v>0.105</v>
-      </c>
-      <c r="F11" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G11" s="73">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="H11" s="73">
-        <v>169</v>
-      </c>
-      <c r="I11" s="73">
-        <v>0</v>
-      </c>
-      <c r="J11" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="D12" s="73">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E12" s="73">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F12" s="73">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G12" s="73">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H12" s="73">
-        <v>58</v>
-      </c>
-      <c r="I12" s="73">
-        <v>0</v>
-      </c>
-      <c r="J12" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="73">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D13" s="73">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E13" s="73">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="F13" s="73">
-        <v>0.01</v>
-      </c>
-      <c r="G13" s="73">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="H13" s="73">
-        <v>32</v>
-      </c>
-      <c r="I13" s="73">
-        <v>0</v>
-      </c>
-      <c r="J13" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="73">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D14" s="73">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="E14" s="73">
-        <v>0.154</v>
-      </c>
-      <c r="F14" s="73">
-        <v>1.6E-2</v>
-      </c>
-      <c r="G14" s="73">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="H14" s="73">
-        <v>98</v>
-      </c>
-      <c r="I14" s="73">
-        <v>0</v>
-      </c>
-      <c r="J14" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="73">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="D15" s="73">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E15" s="73">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="F15" s="73">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="G15" s="73">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="H15" s="73">
-        <v>14</v>
-      </c>
-      <c r="I15" s="73">
-        <v>0</v>
-      </c>
-      <c r="J15" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="73">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="D16" s="73">
-        <v>0.309</v>
-      </c>
-      <c r="E16" s="73">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="F16" s="73">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="G16" s="73">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="H16" s="73">
-        <v>6</v>
-      </c>
-      <c r="I16" s="73">
-        <v>0</v>
-      </c>
-      <c r="J16" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="73">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D17" s="73">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="E17" s="73">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="F17" s="73">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G17" s="73">
-        <v>0.68400000000000005</v>
-      </c>
-      <c r="H17" s="73">
-        <v>59</v>
-      </c>
-      <c r="I17" s="73">
-        <v>0</v>
-      </c>
-      <c r="J17" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="73">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D18" s="73">
-        <v>0.312</v>
-      </c>
-      <c r="E18" s="73">
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="F18" s="73">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G18" s="73">
-        <v>0.36</v>
-      </c>
-      <c r="H18" s="73">
-        <v>24</v>
-      </c>
-      <c r="I18" s="73">
-        <v>0</v>
-      </c>
-      <c r="J18" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="73">
-        <v>0.188</v>
-      </c>
-      <c r="D19" s="73">
-        <v>0.245</v>
-      </c>
-      <c r="E19" s="73">
-        <v>0.33</v>
-      </c>
-      <c r="F19" s="73">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G19" s="73">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="H19" s="73">
-        <v>32</v>
-      </c>
-      <c r="I19" s="73">
-        <v>0</v>
-      </c>
-      <c r="J19" s="73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="73">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="D20" s="73">
-        <v>0.47</v>
-      </c>
-      <c r="E20" s="73">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="F20" s="73">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="G20" s="73">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="H20" s="73">
-        <v>34</v>
-      </c>
-      <c r="I20" s="73">
-        <v>0</v>
-      </c>
-      <c r="J20" s="73">
+      <c r="C20" s="76">
+        <v>0</v>
+      </c>
+      <c r="D20" s="76">
+        <v>0</v>
+      </c>
+      <c r="E20" s="76">
+        <v>19.016999999999999</v>
+      </c>
+      <c r="F20" s="76">
+        <v>3.226</v>
+      </c>
+      <c r="G20" s="76">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H20" s="76">
+        <v>31</v>
+      </c>
+      <c r="I20" s="76">
+        <v>1</v>
+      </c>
+      <c r="J20" s="76">
         <v>0</v>
       </c>
     </row>
@@ -6454,41 +6564,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:O44"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="1.5" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="12" max="12" width="40.28515625" customWidth="1"/>
     <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="76" t="s">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-    </row>
-    <row r="11" spans="5:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+    </row>
+    <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
@@ -6505,7 +6615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
         <v>0</v>
       </c>
@@ -6524,7 +6634,7 @@
         <v>-1.377410468319562E-2</v>
       </c>
     </row>
-    <row r="13" spans="5:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
@@ -6543,7 +6653,7 @@
         <v>-2.0325203252032464E-2</v>
       </c>
     </row>
-    <row r="14" spans="5:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
@@ -6562,7 +6672,7 @@
         <v>-2.0325203252032464E-2</v>
       </c>
     </row>
-    <row r="15" spans="5:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
@@ -6581,7 +6691,7 @@
         <v>-4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="16" spans="5:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
@@ -6600,7 +6710,7 @@
         <v>5.3571428571428603E-2</v>
       </c>
     </row>
-    <row r="17" spans="5:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
@@ -6619,7 +6729,7 @@
         <v>2.6666666666666616E-2</v>
       </c>
     </row>
-    <row r="18" spans="5:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
@@ -6638,16 +6748,16 @@
         <v>-4.4871794871794934E-2</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E23" s="76" t="s">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E23" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
@@ -6664,7 +6774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="5:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="13" t="s">
         <v>0</v>
       </c>
@@ -6684,7 +6794,7 @@
         <v>0.14932963476652794</v>
       </c>
     </row>
-    <row r="27" spans="5:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="13" t="s">
         <v>1</v>
       </c>
@@ -6704,7 +6814,7 @@
         <v>9.8419540229885083E-2</v>
       </c>
     </row>
-    <row r="28" spans="5:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="13" t="s">
         <v>2</v>
       </c>
@@ -6724,7 +6834,7 @@
         <v>9.4516594516594554E-2</v>
       </c>
     </row>
-    <row r="29" spans="5:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="13" t="s">
         <v>3</v>
       </c>
@@ -6744,7 +6854,7 @@
         <v>7.1125265392781301E-2</v>
       </c>
     </row>
-    <row r="30" spans="5:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="13" t="s">
         <v>20</v>
       </c>
@@ -6764,7 +6874,7 @@
         <v>0.19696969696969702</v>
       </c>
     </row>
-    <row r="31" spans="5:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E31" s="13" t="s">
         <v>5</v>
       </c>
@@ -6784,7 +6894,7 @@
         <v>0.13711583924349879</v>
       </c>
     </row>
-    <row r="32" spans="5:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="13" t="s">
         <v>6</v>
       </c>
@@ -6804,16 +6914,16 @@
         <v>9.2932665553700611E-2</v>
       </c>
     </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="76" t="s">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
         <v>14</v>
       </c>
@@ -6842,7 +6952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E38" s="13" t="s">
         <v>0</v>
       </c>
@@ -6873,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E39" s="13" t="s">
         <v>1</v>
       </c>
@@ -6904,7 +7014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E40" s="13" t="s">
         <v>2</v>
       </c>
@@ -6935,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E41" s="13" t="s">
         <v>3</v>
       </c>
@@ -6966,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E42" s="13" t="s">
         <v>20</v>
       </c>
@@ -6997,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E43" s="13" t="s">
         <v>5</v>
       </c>
@@ -7028,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E44" s="13" t="s">
         <v>6</v>
       </c>
@@ -7071,196 +7181,921 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25180F0-4345-C947-AB0C-4CD29B0B9F33}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="A1:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="71"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="72"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="72"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="72"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="72"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="72"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="72"/>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="51"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="49"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="49"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="49"/>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="51"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="49"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="49"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="71"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="72"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="49"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="49"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="49"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="49"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="49"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="49"/>
-    </row>
-    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="49"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="51"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="49"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="68">
+        <v>1</v>
+      </c>
+      <c r="D1" s="70" t="e">
+        <f t="shared" ref="D1:D29" si="0">VLOOKUP(A1,$M$1:$W$10,6,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E1" t="e">
+        <f>VLOOKUP(A1,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F1" s="21" t="e">
+        <f>60/E1*C1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G1" t="e">
+        <f>VLOOKUP(A1,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H1" s="20" t="e">
+        <f>D1*F1*G1</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="68">
+        <v>1</v>
+      </c>
+      <c r="D2" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="21" t="e">
+        <f>60/E2*C2</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
+        <f t="shared" ref="G2:G17" si="1">VLOOKUP(A2,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H2" s="20" t="e">
+        <f>D2*F2*G2</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="68">
+        <v>1</v>
+      </c>
+      <c r="D3" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <f t="shared" ref="E3:E15" si="2">VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="21" t="e">
+        <f t="shared" ref="F3:F15" si="3">60/E3*C3</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="20" t="e">
+        <f t="shared" ref="H3:H17" si="4">D3*F3*G3</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="68">
+        <v>1</v>
+      </c>
+      <c r="D4" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="68">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="68">
+        <v>1</v>
+      </c>
+      <c r="D6" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F6" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="68">
+        <v>1</v>
+      </c>
+      <c r="D7" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="20" t="e">
+        <f>VLOOKUP(A7,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="20" t="e">
+        <f>D7*F7*G7</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="68">
+        <v>1</v>
+      </c>
+      <c r="D8" s="69" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1</v>
+      </c>
+      <c r="D9" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="20" t="e">
+        <f>VLOOKUP(A9,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F9" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="20" t="e">
+        <f>D12*F12*G12</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1</v>
+      </c>
+      <c r="D13" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F15" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <f t="shared" ref="E16:E29" si="5">VLOOKUP(A16,$M$1:$W$8,5,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="21" t="e">
+        <f t="shared" ref="F16:F29" si="6">60/E16*C16</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="20" t="e">
+        <f>D16*F16*G16</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="68">
+        <v>1</v>
+      </c>
+      <c r="D17" s="70" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="20" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="68">
+        <v>1</v>
+      </c>
+      <c r="D18" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" ref="G18:G29" si="7">VLOOKUP(A18,$M$1:$W$8,8,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="20" t="e">
+        <f t="shared" ref="H18:H25" si="8">D18*F18*G18</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1</v>
+      </c>
+      <c r="D19" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="68">
+        <v>1</v>
+      </c>
+      <c r="D20" s="71" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H20" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H21" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="30">
+        <v>1</v>
+      </c>
+      <c r="D23" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="30">
+        <v>1</v>
+      </c>
+      <c r="D24" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="30">
+        <v>1</v>
+      </c>
+      <c r="D25" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="20" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" s="20" t="e">
+        <f t="shared" ref="H26:H29" si="9">D26*F26*G26</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="30">
+        <v>1</v>
+      </c>
+      <c r="D27" s="50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+      <c r="D28" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F28" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H28" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="30">
+        <v>1</v>
+      </c>
+      <c r="D29" s="49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>

--- a/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
+++ b/Документация/WebTours Профиль нагрузки_v1.2 (Новая статистика).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr hidePivotFieldList="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="20430" windowHeight="7125"/>
@@ -18,14 +18,9 @@
   </externalReferences>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -468,12 +463,6 @@
     <t>SLA Status</t>
   </si>
   <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Maximum</t>
   </si>
   <si>
@@ -592,6 +581,12 @@
   </si>
   <si>
     <t>UC7_Sign_Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threshold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violation(%) </t>
   </si>
 </sst>
 </file>
@@ -602,12 +597,20 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -859,6 +862,15 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="42">
@@ -1446,115 +1458,136 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1564,16 +1597,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="38" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1585,28 +1618,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1618,14 +1651,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1644,7 +1677,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1654,44 +1686,62 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="66"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="67"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="88">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1 2" xfId="70"/>
     <cellStyle name="20% — акцент1 2" xfId="48"/>
     <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2 2" xfId="73"/>
     <cellStyle name="20% — акцент2 2" xfId="51"/>
     <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3 2" xfId="76"/>
     <cellStyle name="20% — акцент3 2" xfId="54"/>
     <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4 2" xfId="79"/>
     <cellStyle name="20% — акцент4 2" xfId="57"/>
     <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5 2" xfId="82"/>
     <cellStyle name="20% — акцент5 2" xfId="60"/>
     <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6 2" xfId="85"/>
     <cellStyle name="20% — акцент6 2" xfId="63"/>
     <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1 2" xfId="71"/>
     <cellStyle name="40% — акцент1 2" xfId="49"/>
     <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2 2" xfId="74"/>
     <cellStyle name="40% — акцент2 2" xfId="52"/>
     <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3 2" xfId="77"/>
     <cellStyle name="40% — акцент3 2" xfId="55"/>
     <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4 2" xfId="80"/>
     <cellStyle name="40% — акцент4 2" xfId="58"/>
     <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5 2" xfId="83"/>
     <cellStyle name="40% — акцент5 2" xfId="61"/>
     <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6 2" xfId="86"/>
     <cellStyle name="40% — акцент6 2" xfId="64"/>
     <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1 2" xfId="72"/>
     <cellStyle name="60% — акцент1 2" xfId="50"/>
     <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2 2" xfId="75"/>
     <cellStyle name="60% — акцент2 2" xfId="53"/>
     <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3 2" xfId="78"/>
     <cellStyle name="60% — акцент3 2" xfId="56"/>
     <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4 2" xfId="81"/>
     <cellStyle name="60% — акцент4 2" xfId="59"/>
     <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5 2" xfId="84"/>
     <cellStyle name="60% — акцент5 2" xfId="62"/>
     <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6 2" xfId="87"/>
     <cellStyle name="60% — акцент6 2" xfId="65"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
@@ -1709,6 +1759,7 @@
     <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Контрольная ячейка" xfId="14" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Название" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Название 2" xfId="68"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Нейтральный 2" xfId="46"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1716,10 +1767,12 @@
     <cellStyle name="Обычный 3" xfId="42"/>
     <cellStyle name="Обычный 4" xfId="45"/>
     <cellStyle name="Обычный 5" xfId="66"/>
+    <cellStyle name="Обычный 6" xfId="67"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="43"/>
     <cellStyle name="Примечание 3" xfId="47"/>
+    <cellStyle name="Примечание 4" xfId="69"/>
     <cellStyle name="Процентный" xfId="44" builtinId="5"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
@@ -1736,7 +1789,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="166" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -1745,7 +1798,7 @@
       <numFmt numFmtId="167" formatCode="0.00000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000000"/>
+      <numFmt numFmtId="168" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <fill>
@@ -1786,9 +1839,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2509,7 +2559,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2623,7 +2673,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I57:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3007,7 +3057,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3017,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,7 +3134,7 @@
         <v>45</v>
       </c>
       <c r="P1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q1" t="s">
         <v>46</v>
@@ -4301,13 +4351,13 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.3">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="74"/>
+      <c r="B32" s="73"/>
       <c r="E32" s="57"/>
       <c r="F32" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>56</v>
@@ -4330,7 +4380,7 @@
         <v>57</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="52" t="str">
@@ -4343,11 +4393,11 @@
       </c>
       <c r="H33" s="48">
         <f>VLOOKUP(F33,SummaryReport!A:J,8,FALSE)</f>
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" ref="I33:I44" si="13">1-G33/H33</f>
-        <v>-6.5139224731754375E-2</v>
+        <v>-3.9473219316531249E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4376,11 +4426,11 @@
       </c>
       <c r="H34" s="48">
         <f>VLOOKUP(F34,SummaryReport!A:J,8,FALSE)</f>
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I34" s="26">
         <f t="shared" si="13"/>
-        <v>-0.14270369436214803</v>
+        <v>-5.6786123357475127E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4409,11 +4459,11 @@
       </c>
       <c r="H35" s="48">
         <f>VLOOKUP(F35,SummaryReport!A:J,8,FALSE)</f>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I35" s="26">
         <f t="shared" si="13"/>
-        <v>-0.18700520783655405</v>
+        <v>-5.6434634974533049E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4442,11 +4492,11 @@
       </c>
       <c r="H36" s="48">
         <f>VLOOKUP(F36,SummaryReport!A:J,8,FALSE)</f>
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I36" s="26">
         <f t="shared" si="13"/>
-        <v>-0.17951925654543821</v>
+        <v>-8.0041728884979735E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4475,11 +4525,11 @@
       </c>
       <c r="H37" s="48">
         <f>VLOOKUP(F37,SummaryReport!A:J,8,FALSE)</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I37" s="26">
         <f t="shared" si="13"/>
-        <v>-0.17951925654543821</v>
+        <v>-9.3212969481137886E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4508,11 +4558,11 @@
       </c>
       <c r="H38" s="48">
         <f>VLOOKUP(F38,SummaryReport!A:J,8,FALSE)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I38" s="26">
         <f t="shared" si="13"/>
-        <v>-0.13851992409867164</v>
+        <v>-0.16129032258064502</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4541,11 +4591,11 @@
       </c>
       <c r="H39" s="48">
         <f>VLOOKUP(F39,SummaryReport!A:J,8,FALSE)</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="13"/>
-        <v>-0.1201639402183512</v>
+        <v>-0.16217008797653931</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4574,11 +4624,11 @@
       </c>
       <c r="H40" s="48">
         <f>VLOOKUP(F40,SummaryReport!A:J,8,FALSE)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="26">
         <f t="shared" si="13"/>
-        <v>-9.0909090909090828E-2</v>
+        <v>-0.14285714285714279</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4607,11 +4657,11 @@
       </c>
       <c r="H41" s="48">
         <f>VLOOKUP(F41,SummaryReport!A:J,8,FALSE)</f>
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I41" s="26">
         <f t="shared" si="13"/>
-        <v>-0.27281281322232909</v>
+        <v>-0.17381626108281467</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -4673,11 +4723,11 @@
       </c>
       <c r="H43" s="48">
         <f>VLOOKUP(F43,SummaryReport!A:J,8,FALSE)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I43" s="26">
         <f t="shared" si="13"/>
-        <v>-3.2258064516129004E-2</v>
+        <v>-0.10344827586206895</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4706,11 +4756,11 @@
       </c>
       <c r="H44" s="48">
         <f>VLOOKUP(F44,SummaryReport!A:J,8,FALSE)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I44" s="26">
         <f t="shared" si="13"/>
-        <v>-3.2258064516129004E-2</v>
+        <v>-0.14285714285714279</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
@@ -4765,7 +4815,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
@@ -4783,7 +4833,7 @@
         <v>73</v>
       </c>
       <c r="H49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -4823,7 +4873,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" s="60">
         <f>150/3</f>
@@ -4858,7 +4908,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B52" s="61">
         <f>30/3</f>
@@ -4969,7 +5019,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
@@ -4986,13 +5036,13 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
         <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" t="s">
-        <v>103</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
@@ -5009,7 +5059,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I58" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J58" s="20">
         <v>48</v>
@@ -5020,7 +5070,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C59" s="20">
         <f>VLOOKUP(A59,$A$49:$H$53,6,FALSE)</f>
@@ -5042,7 +5092,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I59" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J59" s="20">
         <v>154.66666666666669</v>
@@ -5075,7 +5125,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I60" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J60" s="20">
         <v>48</v>
@@ -5086,7 +5136,7 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C61" s="20">
         <f t="shared" si="19"/>
@@ -5108,7 +5158,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I61" s="62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J61" s="20">
         <v>148</v>
@@ -5119,7 +5169,7 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C62" s="20">
         <f t="shared" si="19"/>
@@ -5152,7 +5202,7 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" s="20">
         <f t="shared" si="19"/>
@@ -5174,7 +5224,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I63" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J63" s="20">
         <v>48</v>
@@ -5185,7 +5235,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C64" s="20">
         <f t="shared" si="19"/>
@@ -5207,7 +5257,7 @@
         <v>41.333333333333336</v>
       </c>
       <c r="I64" s="62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J64" s="20">
         <v>41.333333333333336</v>
@@ -5218,7 +5268,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C65" s="20">
         <f t="shared" si="19"/>
@@ -5240,7 +5290,7 @@
         <v>50</v>
       </c>
       <c r="I65" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J65" s="20">
         <v>50</v>
@@ -5248,10 +5298,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="20">
         <f t="shared" si="19"/>
@@ -5273,7 +5323,7 @@
         <v>50</v>
       </c>
       <c r="I66" s="62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J66" s="20">
         <v>10</v>
@@ -5281,7 +5331,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -5314,10 +5364,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C68" s="20">
         <f t="shared" si="19"/>
@@ -5341,10 +5391,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="20">
         <f t="shared" si="19"/>
@@ -5368,7 +5418,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
@@ -5395,10 +5445,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="20">
         <f t="shared" si="19"/>
@@ -5422,10 +5472,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="20">
         <f t="shared" si="19"/>
@@ -5449,10 +5499,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="20">
         <f t="shared" si="19"/>
@@ -5479,7 +5529,7 @@
         <v>68</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74" s="20">
         <f t="shared" si="19"/>
@@ -5506,7 +5556,7 @@
         <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C75" s="20">
         <f t="shared" si="19"/>
@@ -5560,7 +5610,7 @@
         <v>68</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C77" s="20">
         <f t="shared" si="19"/>
@@ -5587,7 +5637,7 @@
         <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C78" s="20">
         <f t="shared" si="19"/>
@@ -5614,7 +5664,7 @@
         <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C79" s="20">
         <f t="shared" si="19"/>
@@ -5641,7 +5691,7 @@
         <v>68</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C80" s="20">
         <f t="shared" si="19"/>
@@ -5668,7 +5718,7 @@
         <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C81" s="20" t="e">
         <f t="shared" si="19"/>
@@ -5722,7 +5772,7 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C83" s="20" t="e">
         <f t="shared" si="19"/>
@@ -5749,7 +5799,7 @@
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C84" s="20" t="e">
         <f t="shared" si="19"/>
@@ -5798,7 +5848,7 @@
         <v>Главная Welcome страница</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5816,7 +5866,7 @@
         <v>Переход на страницу поиска билетов</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5825,7 +5875,7 @@
         <v xml:space="preserve">Заполнение полей для поиска билета </v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5834,7 +5884,7 @@
         <v xml:space="preserve">Выбор рейса из найденных </v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5843,7 +5893,7 @@
         <v>Оплата билета</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5852,7 +5902,7 @@
         <v>Просмотр квитанций</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5861,7 +5911,7 @@
         <v xml:space="preserve">Отмена бронирования </v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5879,7 +5929,7 @@
         <v>Перход на страницу регистрации</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5888,7 +5938,7 @@
         <v>Заполнение полей регистарции</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5897,7 +5947,7 @@
         <v>Переход на следуюущий эран после регистарции</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5910,7 +5960,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J20" sqref="A1:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5919,642 +5969,642 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="F1" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="G1" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="H1" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="72" t="s">
+      <c r="C2" s="75">
+        <v>0</v>
+      </c>
+      <c r="D2" s="75">
+        <v>0</v>
+      </c>
+      <c r="E2" s="75">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="F2" s="75">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="G2" s="75">
+        <v>2.2549999999999999</v>
+      </c>
+      <c r="H2" s="75">
+        <v>149</v>
+      </c>
+      <c r="I2" s="75">
+        <v>16</v>
+      </c>
+      <c r="J2" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="75">
+        <v>0</v>
+      </c>
+      <c r="D3" s="75">
+        <v>0</v>
+      </c>
+      <c r="E3" s="75">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="F3" s="75">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G3" s="75">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H3" s="75">
         <v>28</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I3" s="75">
+        <v>1</v>
+      </c>
+      <c r="J3" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="75">
+        <v>0</v>
+      </c>
+      <c r="D4" s="75">
+        <v>0</v>
+      </c>
+      <c r="E4" s="75">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F4" s="75">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G4" s="75">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="75">
+        <v>83</v>
+      </c>
+      <c r="I4" s="75">
+        <v>1</v>
+      </c>
+      <c r="J4" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="75">
+        <v>0</v>
+      </c>
+      <c r="D5" s="75">
+        <v>0</v>
+      </c>
+      <c r="E5" s="75">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="F5" s="75">
+        <v>0.107</v>
+      </c>
+      <c r="G5" s="75">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="H5" s="75">
+        <v>82</v>
+      </c>
+      <c r="I5" s="75">
+        <v>0</v>
+      </c>
+      <c r="J5" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="75">
+        <v>0</v>
+      </c>
+      <c r="D6" s="75">
+        <v>0</v>
+      </c>
+      <c r="E6" s="75">
+        <v>1.2529999999999999</v>
+      </c>
+      <c r="F6" s="75">
+        <v>0.222</v>
+      </c>
+      <c r="G6" s="75">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="H6" s="75">
+        <v>21</v>
+      </c>
+      <c r="I6" s="75">
+        <v>1</v>
+      </c>
+      <c r="J6" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0</v>
+      </c>
+      <c r="D7" s="75">
+        <v>0</v>
+      </c>
+      <c r="E7" s="75">
+        <v>1.728</v>
+      </c>
+      <c r="F7" s="75">
+        <v>0.182</v>
+      </c>
+      <c r="G7" s="75">
+        <v>0.43</v>
+      </c>
+      <c r="H7" s="75">
+        <v>80</v>
+      </c>
+      <c r="I7" s="75">
+        <v>2</v>
+      </c>
+      <c r="J7" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0</v>
+      </c>
+      <c r="D8" s="75">
+        <v>0</v>
+      </c>
+      <c r="E8" s="75">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F8" s="75">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G8" s="75">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H8" s="75">
+        <v>133</v>
+      </c>
+      <c r="I8" s="75">
+        <v>1</v>
+      </c>
+      <c r="J8" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="75">
+        <v>0</v>
+      </c>
+      <c r="D9" s="75">
+        <v>0</v>
+      </c>
+      <c r="E9" s="75">
+        <v>0.86</v>
+      </c>
+      <c r="F9" s="75">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G9" s="75">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="H9" s="75">
+        <v>90</v>
+      </c>
+      <c r="I9" s="75">
+        <v>3</v>
+      </c>
+      <c r="J9" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="75">
+        <v>0</v>
+      </c>
+      <c r="D10" s="75">
+        <v>0</v>
+      </c>
+      <c r="E10" s="75">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F10" s="75">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G10" s="75">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H10" s="75">
+        <v>166</v>
+      </c>
+      <c r="I10" s="75">
+        <v>1</v>
+      </c>
+      <c r="J10" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0</v>
+      </c>
+      <c r="D11" s="75">
+        <v>0</v>
+      </c>
+      <c r="E11" s="75">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="F11" s="75">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G11" s="75">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H11" s="75">
+        <v>50</v>
+      </c>
+      <c r="I11" s="75">
+        <v>3</v>
+      </c>
+      <c r="J11" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="75">
+        <v>0</v>
+      </c>
+      <c r="D12" s="75">
+        <v>0</v>
+      </c>
+      <c r="E12" s="75">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F12" s="75">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="75">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H12" s="75">
         <v>29</v>
       </c>
-      <c r="J1" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="76">
-        <v>0</v>
-      </c>
-      <c r="D2" s="76">
-        <v>0</v>
-      </c>
-      <c r="E2" s="76">
-        <v>29.324000000000002</v>
-      </c>
-      <c r="F2" s="76">
-        <v>4.2960000000000003</v>
-      </c>
-      <c r="G2" s="76">
-        <v>2.089</v>
-      </c>
-      <c r="H2" s="76">
-        <v>147</v>
-      </c>
-      <c r="I2" s="76">
-        <v>13</v>
-      </c>
-      <c r="J2" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="I12" s="75">
+        <v>2</v>
+      </c>
+      <c r="J12" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="75">
+        <v>0</v>
+      </c>
+      <c r="D13" s="75">
+        <v>0</v>
+      </c>
+      <c r="E13" s="75">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="F13" s="75">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G13" s="75">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H13" s="75">
+        <v>100</v>
+      </c>
+      <c r="I13" s="75">
+        <v>1</v>
+      </c>
+      <c r="J13" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="76">
-        <v>0</v>
-      </c>
-      <c r="D3" s="76">
-        <v>0</v>
-      </c>
-      <c r="E3" s="76">
-        <v>0.371</v>
-      </c>
-      <c r="F3" s="76">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="G3" s="76">
-        <v>0.317</v>
-      </c>
-      <c r="H3" s="76">
-        <v>31</v>
-      </c>
-      <c r="I3" s="76">
-        <v>0</v>
-      </c>
-      <c r="J3" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="B14" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="75">
+        <v>0</v>
+      </c>
+      <c r="D14" s="75">
+        <v>0</v>
+      </c>
+      <c r="E14" s="75">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F14" s="75">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G14" s="75">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="H14" s="75">
+        <v>32</v>
+      </c>
+      <c r="I14" s="75">
+        <v>0</v>
+      </c>
+      <c r="J14" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="76">
-        <v>0</v>
-      </c>
-      <c r="D4" s="76">
-        <v>0</v>
-      </c>
-      <c r="E4" s="76">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="F4" s="76">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G4" s="76">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="H4" s="76">
-        <v>76</v>
-      </c>
-      <c r="I4" s="76">
-        <v>1</v>
-      </c>
-      <c r="J4" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="B15" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="75">
+        <v>0</v>
+      </c>
+      <c r="D15" s="75">
+        <v>0</v>
+      </c>
+      <c r="E15" s="75">
+        <v>1.397</v>
+      </c>
+      <c r="F15" s="75">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G15" s="75">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="H15" s="75">
+        <v>15</v>
+      </c>
+      <c r="I15" s="75">
+        <v>1</v>
+      </c>
+      <c r="J15" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="76">
-        <v>0</v>
-      </c>
-      <c r="D5" s="76">
-        <v>0</v>
-      </c>
-      <c r="E5" s="76">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="F5" s="76">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G5" s="76">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="H5" s="76">
-        <v>76</v>
-      </c>
-      <c r="I5" s="76">
-        <v>0</v>
-      </c>
-      <c r="J5" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="76">
-        <v>0</v>
-      </c>
-      <c r="D6" s="76">
-        <v>0</v>
-      </c>
-      <c r="E6" s="76">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F6" s="76">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="G6" s="76">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="H6" s="76">
-        <v>22</v>
-      </c>
-      <c r="I6" s="76">
-        <v>0</v>
-      </c>
-      <c r="J6" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="76">
-        <v>0</v>
-      </c>
-      <c r="D7" s="76">
-        <v>0</v>
-      </c>
-      <c r="E7" s="76">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="F7" s="76">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G7" s="76">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="H7" s="76">
-        <v>83</v>
-      </c>
-      <c r="I7" s="76">
-        <v>1</v>
-      </c>
-      <c r="J7" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="76">
-        <v>0</v>
-      </c>
-      <c r="D8" s="76">
-        <v>0</v>
-      </c>
-      <c r="E8" s="76">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="F8" s="76">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G8" s="76">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="H8" s="76">
-        <v>123</v>
-      </c>
-      <c r="I8" s="76">
-        <v>4</v>
-      </c>
-      <c r="J8" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="76">
-        <v>0</v>
-      </c>
-      <c r="D9" s="76">
-        <v>0</v>
-      </c>
-      <c r="E9" s="76">
-        <v>27.943999999999999</v>
-      </c>
-      <c r="F9" s="76">
-        <v>3.0209999999999999</v>
-      </c>
-      <c r="G9" s="76">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="H9" s="76">
-        <v>83</v>
-      </c>
-      <c r="I9" s="76">
-        <v>0</v>
-      </c>
-      <c r="J9" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="76">
-        <v>0</v>
-      </c>
-      <c r="D10" s="76">
-        <v>0</v>
-      </c>
-      <c r="E10" s="76">
-        <v>27.417999999999999</v>
-      </c>
-      <c r="F10" s="76">
-        <v>3.403</v>
-      </c>
-      <c r="G10" s="76">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="H10" s="76">
-        <v>162</v>
-      </c>
-      <c r="I10" s="76">
-        <v>0</v>
-      </c>
-      <c r="J10" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="76">
-        <v>0</v>
-      </c>
-      <c r="D11" s="76">
-        <v>0</v>
-      </c>
-      <c r="E11" s="76">
-        <v>0.252</v>
-      </c>
-      <c r="F11" s="76">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G11" s="76">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="H11" s="76">
-        <v>51</v>
-      </c>
-      <c r="I11" s="76">
-        <v>4</v>
-      </c>
-      <c r="J11" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="76">
-        <v>0</v>
-      </c>
-      <c r="D12" s="76">
-        <v>0</v>
-      </c>
-      <c r="E12" s="76">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="F12" s="76">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G12" s="76">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="H12" s="76">
-        <v>31</v>
-      </c>
-      <c r="I12" s="76">
-        <v>1</v>
-      </c>
-      <c r="J12" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="76">
-        <v>0</v>
-      </c>
-      <c r="D13" s="76">
-        <v>0</v>
-      </c>
-      <c r="E13" s="76">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="F13" s="76">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G13" s="76">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="H13" s="76">
-        <v>89</v>
-      </c>
-      <c r="I13" s="76">
+      <c r="B16" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="75">
+        <v>0</v>
+      </c>
+      <c r="D16" s="75">
+        <v>0</v>
+      </c>
+      <c r="E16" s="75">
+        <v>2.5419999999999998</v>
+      </c>
+      <c r="F16" s="75">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="G16" s="75">
+        <v>1.871</v>
+      </c>
+      <c r="H16" s="75">
+        <v>29</v>
+      </c>
+      <c r="I16" s="75">
         <v>2</v>
       </c>
-      <c r="J13" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="76">
-        <v>0</v>
-      </c>
-      <c r="D14" s="76">
-        <v>0</v>
-      </c>
-      <c r="E14" s="76">
-        <v>0.191</v>
-      </c>
-      <c r="F14" s="76">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G14" s="76">
-        <v>0.151</v>
-      </c>
-      <c r="H14" s="76">
-        <v>32</v>
-      </c>
-      <c r="I14" s="76">
-        <v>0</v>
-      </c>
-      <c r="J14" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="J16" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="76">
-        <v>0</v>
-      </c>
-      <c r="D15" s="76">
-        <v>0</v>
-      </c>
-      <c r="E15" s="76">
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="F15" s="76">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="G15" s="76">
-        <v>1.234</v>
-      </c>
-      <c r="H15" s="76">
-        <v>12</v>
-      </c>
-      <c r="I15" s="76">
-        <v>1</v>
-      </c>
-      <c r="J15" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="B17" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="75">
+        <v>0</v>
+      </c>
+      <c r="D17" s="75">
+        <v>0</v>
+      </c>
+      <c r="E17" s="75">
+        <v>4.9850000000000003</v>
+      </c>
+      <c r="F17" s="75">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="G17" s="75">
+        <v>2.35</v>
+      </c>
+      <c r="H17" s="75">
+        <v>46</v>
+      </c>
+      <c r="I17" s="75">
+        <v>7</v>
+      </c>
+      <c r="J17" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="76">
-        <v>0</v>
-      </c>
-      <c r="D16" s="76">
-        <v>0</v>
-      </c>
-      <c r="E16" s="76">
-        <v>29.324000000000002</v>
-      </c>
-      <c r="F16" s="76">
-        <v>5.9459999999999997</v>
-      </c>
-      <c r="G16" s="76">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="H16" s="76">
+      <c r="B18" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="75">
+        <v>0</v>
+      </c>
+      <c r="D18" s="75">
+        <v>0</v>
+      </c>
+      <c r="E18" s="75">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="F18" s="75">
+        <v>0.124</v>
+      </c>
+      <c r="G18" s="75">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="H18" s="75">
+        <v>10</v>
+      </c>
+      <c r="I18" s="75">
+        <v>1</v>
+      </c>
+      <c r="J18" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="75">
+        <v>0</v>
+      </c>
+      <c r="D19" s="75">
+        <v>0</v>
+      </c>
+      <c r="E19" s="75">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="F19" s="75">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G19" s="75">
+        <v>1.653</v>
+      </c>
+      <c r="H19" s="75">
         <v>21</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I19" s="75">
+        <v>2</v>
+      </c>
+      <c r="J19" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="75">
+        <v>0</v>
+      </c>
+      <c r="D20" s="75">
+        <v>0</v>
+      </c>
+      <c r="E20" s="75">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="F20" s="75">
+        <v>0.111</v>
+      </c>
+      <c r="G20" s="75">
+        <v>1.125</v>
+      </c>
+      <c r="H20" s="75">
+        <v>28</v>
+      </c>
+      <c r="I20" s="75">
         <v>3</v>
       </c>
-      <c r="J16" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="76">
-        <v>0</v>
-      </c>
-      <c r="D17" s="76">
-        <v>0</v>
-      </c>
-      <c r="E17" s="76">
-        <v>29.061</v>
-      </c>
-      <c r="F17" s="76">
-        <v>5.4989999999999997</v>
-      </c>
-      <c r="G17" s="76">
-        <v>2.1859999999999999</v>
-      </c>
-      <c r="H17" s="76">
-        <v>50</v>
-      </c>
-      <c r="I17" s="76">
-        <v>6</v>
-      </c>
-      <c r="J17" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="76">
-        <v>0</v>
-      </c>
-      <c r="D18" s="76">
-        <v>0</v>
-      </c>
-      <c r="E18" s="76">
-        <v>1.181</v>
-      </c>
-      <c r="F18" s="76">
-        <v>0.105</v>
-      </c>
-      <c r="G18" s="76">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="H18" s="76">
-        <v>11</v>
-      </c>
-      <c r="I18" s="76">
-        <v>0</v>
-      </c>
-      <c r="J18" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="76">
-        <v>0</v>
-      </c>
-      <c r="D19" s="76">
-        <v>0</v>
-      </c>
-      <c r="E19" s="76">
-        <v>1.379</v>
-      </c>
-      <c r="F19" s="76">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="76">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H19" s="76">
-        <v>22</v>
-      </c>
-      <c r="I19" s="76">
-        <v>2</v>
-      </c>
-      <c r="J19" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="76">
-        <v>0</v>
-      </c>
-      <c r="D20" s="76">
-        <v>0</v>
-      </c>
-      <c r="E20" s="76">
-        <v>19.016999999999999</v>
-      </c>
-      <c r="F20" s="76">
-        <v>3.226</v>
-      </c>
-      <c r="G20" s="76">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="H20" s="76">
-        <v>31</v>
-      </c>
-      <c r="I20" s="76">
-        <v>1</v>
-      </c>
-      <c r="J20" s="76">
+      <c r="J20" s="75">
         <v>0</v>
       </c>
     </row>
@@ -6590,13 +6640,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
@@ -6749,13 +6799,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="75" t="s">
+      <c r="E23" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
@@ -6915,13 +6965,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="8" t="s">
